--- a/common/src/main/webapp/imports/export-李峰-68.xlsx
+++ b/common/src/main/webapp/imports/export-李峰-68.xlsx
@@ -2466,10 +2466,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -2485,46 +2485,9 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2536,7 +2499,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2550,16 +2513,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
+      <b/>
       <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2574,15 +2537,15 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -2596,11 +2559,10 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2608,14 +2570,6 @@
       <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -2629,9 +2583,55 @@
     <font>
       <b/>
       <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -2644,7 +2644,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2656,13 +2704,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2680,7 +2782,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2692,139 +2812,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2835,45 +2835,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -2888,24 +2849,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2927,6 +2870,54 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -2935,151 +2926,160 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="42" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="8" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -3442,7 +3442,7 @@
   <dimension ref="A1:AE68"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="A19" sqref="A$1:A$1048576"/>
+      <selection activeCell="D22" sqref="A1:U68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1"/>
@@ -3475,29 +3475,30 @@
     <col min="30" max="30" width="37" style="1" customWidth="1"/>
     <col min="31" max="31" width="100.666666666667" style="1" customWidth="1"/>
     <col min="32" max="16383" width="8.88333333333333" style="1" hidden="1"/>
-    <col min="16384" max="16384" width="0" style="1"/>
+    <col min="16384" max="16384" width="0" style="1" hidden="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="30" customHeight="1" spans="1:31">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>546</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="2" t="s">
         <v>4</v>
       </c>
       <c r="I1" s="2" t="s">
@@ -3509,34 +3510,34 @@
       <c r="K1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="2" t="s">
         <v>9</v>
       </c>
       <c r="N1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="O1" s="1" t="s">
+      <c r="O1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="1">
+      <c r="P1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="2">
         <v>18940138586</v>
       </c>
-      <c r="R1" s="1" t="s">
+      <c r="R1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="S1" s="1" t="s">
+      <c r="S1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="T1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U1" s="1">
+      <c r="T1" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U1" s="2">
         <v>18940138586</v>
       </c>
       <c r="X1" s="1" t="s">
@@ -3562,25 +3563,26 @@
       </c>
     </row>
     <row r="2" ht="30" customHeight="1" spans="1:31">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
         <v>557</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2" t="s">
         <v>20</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="1" t="s">
+      <c r="G2" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="1" t="s">
+      <c r="H2" s="2" t="s">
         <v>22</v>
       </c>
       <c r="I2" s="2" t="s">
@@ -3592,34 +3594,34 @@
       <c r="K2" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L2" s="1" t="s">
+      <c r="L2" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M2" s="1" t="s">
+      <c r="M2" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N2" s="1" t="s">
+      <c r="N2" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O2" s="1" t="s">
+      <c r="O2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="P2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q2" s="1" t="s">
+      <c r="P2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q2" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="R2" s="1" t="s">
+      <c r="R2" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="S2" s="1" t="s">
+      <c r="S2" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="T2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U2" s="1" t="s">
+      <c r="T2" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U2" s="2" t="s">
         <v>28</v>
       </c>
       <c r="X2" s="1" t="s">
@@ -3645,25 +3647,26 @@
       </c>
     </row>
     <row r="3" ht="30" customHeight="1" spans="1:31">
-      <c r="A3" s="1">
+      <c r="A3" s="2">
         <v>575</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="C3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E3" s="1" t="s">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="G3" s="1" t="s">
+      <c r="G3" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="H3" s="2" t="s">
         <v>38</v>
       </c>
       <c r="I3" s="2" t="s">
@@ -3675,34 +3678,34 @@
       <c r="K3" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L3" s="1" t="s">
+      <c r="L3" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="1" t="s">
+      <c r="M3" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N3" s="1" t="s">
+      <c r="N3" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O3" s="1" t="s">
+      <c r="O3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="P3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q3" s="1">
+      <c r="P3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q3" s="2">
         <v>22507111</v>
       </c>
-      <c r="R3" s="1" t="s">
+      <c r="R3" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="S3" s="1" t="s">
+      <c r="S3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="T3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U3" s="1">
+      <c r="T3" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U3" s="2">
         <v>22507111</v>
       </c>
       <c r="X3" s="1" t="s">
@@ -3728,28 +3731,28 @@
       </c>
     </row>
     <row r="4" ht="30" customHeight="1" spans="1:31">
-      <c r="A4" s="1">
+      <c r="A4" s="2">
         <v>1172</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="B4" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="D4" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F4" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="H4" s="2" t="s">
         <v>50</v>
       </c>
       <c r="I4" s="2" t="s">
@@ -3761,34 +3764,34 @@
       <c r="K4" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="L4" s="1" t="s">
+      <c r="L4" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M4" s="1" t="s">
+      <c r="M4" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N4" s="1" t="s">
+      <c r="N4" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="O4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="P4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q4" s="1" t="s">
+      <c r="P4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q4" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="R4" s="1" t="s">
+      <c r="R4" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="S4" s="1" t="s">
+      <c r="S4" s="2" t="s">
         <v>55</v>
       </c>
-      <c r="T4" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U4" s="1" t="s">
+      <c r="T4" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U4" s="2" t="s">
         <v>56</v>
       </c>
       <c r="X4" s="1" t="s">
@@ -3814,28 +3817,28 @@
       </c>
     </row>
     <row r="5" ht="30" customHeight="1" spans="1:31">
-      <c r="A5" s="1">
+      <c r="A5" s="2">
         <v>1579</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="2" t="s">
         <v>63</v>
       </c>
       <c r="F5" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="2" t="s">
         <v>65</v>
       </c>
       <c r="I5" s="2" t="s">
@@ -3847,34 +3850,34 @@
       <c r="K5" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O5" s="1" t="s">
+      <c r="O5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="P5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q5" s="1">
+      <c r="P5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q5" s="2">
         <v>17192810568</v>
       </c>
-      <c r="R5" s="1" t="s">
+      <c r="R5" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="S5" s="1" t="s">
+      <c r="S5" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="T5" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U5" s="1">
+      <c r="T5" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U5" s="2">
         <v>17192810568</v>
       </c>
       <c r="X5" s="1" t="s">
@@ -3900,28 +3903,28 @@
       </c>
     </row>
     <row r="6" ht="30" customHeight="1" spans="1:31">
-      <c r="A6" s="1">
+      <c r="A6" s="2">
         <v>1565</v>
       </c>
-      <c r="B6" s="1" t="s">
+      <c r="B6" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="C6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="D6" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="1" t="s">
+      <c r="E6" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F6" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="G6" s="1" t="s">
+      <c r="G6" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="H6" s="1" t="s">
+      <c r="H6" s="2" t="s">
         <v>78</v>
       </c>
       <c r="I6" s="2" t="s">
@@ -3933,34 +3936,34 @@
       <c r="K6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L6" s="1" t="s">
+      <c r="L6" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M6" s="1" t="s">
+      <c r="M6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="1" t="s">
+      <c r="N6" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O6" s="1" t="s">
+      <c r="O6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="P6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q6" s="1">
+      <c r="P6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q6" s="2">
         <v>15940031908</v>
       </c>
-      <c r="R6" s="1" t="s">
+      <c r="R6" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="S6" s="1" t="s">
+      <c r="S6" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="T6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U6" s="1">
+      <c r="T6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U6" s="2">
         <v>15940031908</v>
       </c>
       <c r="X6" s="1" t="s">
@@ -3986,28 +3989,28 @@
       </c>
     </row>
     <row r="7" ht="30" customHeight="1" spans="1:31">
-      <c r="A7" s="1">
+      <c r="A7" s="2">
         <v>1171</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="C7" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D7" s="1" t="s">
+      <c r="D7" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="E7" s="1" t="s">
+      <c r="E7" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F7" s="2" t="s">
         <v>89</v>
       </c>
-      <c r="G7" s="1" t="s">
+      <c r="G7" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="H7" s="1" t="s">
+      <c r="H7" s="2" t="s">
         <v>90</v>
       </c>
       <c r="I7" s="2" t="s">
@@ -4019,34 +4022,34 @@
       <c r="K7" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="L7" s="1" t="s">
+      <c r="L7" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M7" s="1" t="s">
+      <c r="M7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="1" t="s">
+      <c r="N7" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="O7" s="1" t="s">
+      <c r="O7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="P7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q7" s="1" t="s">
+      <c r="P7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q7" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="R7" s="1" t="s">
+      <c r="R7" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="S7" s="1" t="s">
+      <c r="S7" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="T7" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U7" s="1" t="s">
+      <c r="T7" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U7" s="2" t="s">
         <v>96</v>
       </c>
       <c r="X7" s="1" t="s">
@@ -4072,28 +4075,28 @@
       </c>
     </row>
     <row r="8" ht="30" customHeight="1" spans="1:31">
-      <c r="A8" s="1">
+      <c r="A8" s="2">
         <v>1174</v>
       </c>
-      <c r="B8" s="1" t="s">
+      <c r="B8" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="C8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="D8" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F8" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G8" s="1" t="s">
+      <c r="G8" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="H8" s="1" t="s">
+      <c r="H8" s="2" t="s">
         <v>105</v>
       </c>
       <c r="I8" s="2" t="s">
@@ -4105,34 +4108,34 @@
       <c r="K8" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L8" s="1" t="s">
+      <c r="L8" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M8" s="1" t="s">
+      <c r="M8" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="1" t="s">
+      <c r="N8" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O8" s="1" t="s">
+      <c r="O8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="P8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q8" s="1" t="s">
+      <c r="P8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q8" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="R8" s="1" t="s">
+      <c r="R8" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="S8" s="1" t="s">
+      <c r="S8" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="T8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U8" s="1" t="s">
+      <c r="T8" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U8" s="2" t="s">
         <v>109</v>
       </c>
       <c r="X8" s="1" t="s">
@@ -4158,28 +4161,28 @@
       </c>
     </row>
     <row r="9" ht="30" customHeight="1" spans="1:31">
-      <c r="A9" s="1">
+      <c r="A9" s="2">
         <v>1160</v>
       </c>
-      <c r="B9" s="1" t="s">
+      <c r="B9" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="C9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="D9" s="1" t="s">
+      <c r="D9" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F9" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G9" s="1" t="s">
+      <c r="G9" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="H9" s="1" t="s">
+      <c r="H9" s="2" t="s">
         <v>118</v>
       </c>
       <c r="I9" s="2" t="s">
@@ -4191,34 +4194,34 @@
       <c r="K9" s="2" t="s">
         <v>121</v>
       </c>
-      <c r="L9" s="1" t="s">
+      <c r="L9" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M9" s="1" t="s">
+      <c r="M9" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N9" s="1" t="s">
+      <c r="N9" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O9" s="1" t="s">
+      <c r="O9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="P9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q9" s="1">
+      <c r="P9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q9" s="2">
         <v>88205109</v>
       </c>
-      <c r="R9" s="1" t="s">
+      <c r="R9" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="S9" s="1" t="s">
+      <c r="S9" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="T9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U9" s="1">
+      <c r="T9" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U9" s="2">
         <v>88205109</v>
       </c>
       <c r="X9" s="1" t="s">
@@ -4244,28 +4247,28 @@
       </c>
     </row>
     <row r="10" ht="30" customHeight="1" spans="1:31">
-      <c r="A10" s="1">
+      <c r="A10" s="2">
         <v>1156</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="B10" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="C10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="D10" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="E10" s="1" t="s">
+      <c r="E10" s="2" t="s">
         <v>129</v>
       </c>
       <c r="F10" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="G10" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="H10" s="1" t="s">
+      <c r="H10" s="2" t="s">
         <v>131</v>
       </c>
       <c r="I10" s="2" t="s">
@@ -4277,34 +4280,34 @@
       <c r="K10" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="L10" s="1" t="s">
+      <c r="L10" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M10" s="1" t="s">
+      <c r="M10" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N10" s="1" t="s">
+      <c r="N10" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O10" s="1" t="s">
+      <c r="O10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="P10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q10" s="1">
+      <c r="P10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q10" s="2">
         <v>89862153</v>
       </c>
-      <c r="R10" s="1" t="s">
+      <c r="R10" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="S10" s="1" t="s">
+      <c r="S10" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="T10" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U10" s="1">
+      <c r="T10" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U10" s="2">
         <v>89862153</v>
       </c>
       <c r="X10" s="1" t="s">
@@ -4330,28 +4333,28 @@
       </c>
     </row>
     <row r="11" ht="30" customHeight="1" spans="1:31">
-      <c r="A11" s="1">
+      <c r="A11" s="2">
         <v>1188</v>
       </c>
-      <c r="B11" s="1" t="s">
+      <c r="B11" s="2" t="s">
         <v>139</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="C11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="D11" s="1" t="s">
+      <c r="D11" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="E11" s="1" t="s">
+      <c r="E11" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F11" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="G11" s="1" t="s">
+      <c r="G11" s="2" t="s">
         <v>144</v>
       </c>
-      <c r="H11" s="1" t="s">
+      <c r="H11" s="2" t="s">
         <v>144</v>
       </c>
       <c r="I11" s="2" t="s">
@@ -4363,34 +4366,34 @@
       <c r="K11" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L11" s="1" t="s">
+      <c r="L11" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M11" s="1" t="s">
+      <c r="M11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N11" s="1" t="s">
+      <c r="N11" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O11" s="1" t="s">
+      <c r="O11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="P11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q11" s="1" t="s">
+      <c r="P11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q11" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="R11" s="1" t="s">
+      <c r="R11" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="S11" s="1" t="s">
+      <c r="S11" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="T11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U11" s="1" t="s">
+      <c r="T11" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U11" s="2" t="s">
         <v>149</v>
       </c>
       <c r="X11" s="1" t="s">
@@ -4416,28 +4419,28 @@
       </c>
     </row>
     <row r="12" ht="30" customHeight="1" spans="1:31">
-      <c r="A12" s="1">
+      <c r="A12" s="2">
         <v>1593</v>
       </c>
-      <c r="B12" s="1" t="s">
+      <c r="B12" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="C12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="D12" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E12" s="2" t="s">
         <v>155</v>
       </c>
       <c r="F12" s="2" t="s">
         <v>156</v>
       </c>
-      <c r="G12" s="1" t="s">
+      <c r="G12" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="H12" s="1" t="s">
+      <c r="H12" s="2" t="s">
         <v>157</v>
       </c>
       <c r="I12" s="2" t="s">
@@ -4449,34 +4452,34 @@
       <c r="K12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L12" s="1" t="s">
+      <c r="L12" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M12" s="1" t="s">
+      <c r="M12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N12" s="1" t="s">
+      <c r="N12" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="O12" s="1" t="s">
+      <c r="O12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="P12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="1">
+      <c r="P12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="2">
         <v>89703007</v>
       </c>
-      <c r="R12" s="1" t="s">
+      <c r="R12" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="S12" s="1" t="s">
+      <c r="S12" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="T12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U12" s="1">
+      <c r="T12" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U12" s="2">
         <v>89703007</v>
       </c>
       <c r="X12" s="1" t="s">
@@ -4502,28 +4505,28 @@
       </c>
     </row>
     <row r="13" ht="30" customHeight="1" spans="1:31">
-      <c r="A13" s="1">
+      <c r="A13" s="2">
         <v>1181</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B13" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D13" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="2" t="s">
         <v>165</v>
       </c>
       <c r="F13" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="2" t="s">
         <v>167</v>
       </c>
       <c r="I13" s="2" t="s">
@@ -4535,34 +4538,34 @@
       <c r="K13" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L13" s="1" t="s">
+      <c r="L13" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M13" s="1" t="s">
+      <c r="M13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N13" s="1" t="s">
+      <c r="N13" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O13" s="1" t="s">
+      <c r="O13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="P13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q13" s="1">
+      <c r="P13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q13" s="2">
         <v>89618766</v>
       </c>
-      <c r="R13" s="1" t="s">
+      <c r="R13" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="S13" s="1" t="s">
+      <c r="S13" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="T13" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U13" s="1">
+      <c r="T13" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U13" s="2">
         <v>89618766</v>
       </c>
       <c r="X13" s="1" t="s">
@@ -4588,28 +4591,28 @@
       </c>
     </row>
     <row r="14" ht="30" customHeight="1" spans="1:31">
-      <c r="A14" s="1">
+      <c r="A14" s="2">
         <v>1166</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B14" s="2" t="s">
         <v>172</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="C14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="D14" s="1" t="s">
+      <c r="D14" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>174</v>
       </c>
       <c r="F14" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="H14" s="1" t="s">
+      <c r="H14" s="2" t="s">
         <v>176</v>
       </c>
       <c r="I14" s="2" t="s">
@@ -4621,34 +4624,34 @@
       <c r="K14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L14" s="1" t="s">
+      <c r="L14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M14" s="1" t="s">
+      <c r="M14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N14" s="1" t="s">
+      <c r="N14" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="O14" s="1" t="s">
+      <c r="O14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="P14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q14" s="1">
+      <c r="P14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q14" s="2">
         <v>2486808789</v>
       </c>
-      <c r="R14" s="1" t="s">
+      <c r="R14" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="S14" s="1" t="s">
+      <c r="S14" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="T14" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U14" s="1">
+      <c r="T14" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U14" s="2">
         <v>2486808789</v>
       </c>
       <c r="X14" s="1" t="s">
@@ -4674,28 +4677,28 @@
       </c>
     </row>
     <row r="15" ht="30" customHeight="1" spans="1:31">
-      <c r="A15" s="1">
+      <c r="A15" s="2">
         <v>561</v>
       </c>
-      <c r="B15" s="1" t="s">
+      <c r="B15" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C15" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D15" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="E15" s="2" t="s">
         <v>184</v>
       </c>
       <c r="F15" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="G15" s="1" t="s">
+      <c r="G15" s="2" t="s">
         <v>186</v>
       </c>
-      <c r="H15" s="1" t="s">
+      <c r="H15" s="2" t="s">
         <v>186</v>
       </c>
       <c r="I15" s="2" t="s">
@@ -4707,34 +4710,34 @@
       <c r="K15" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="L15" s="1" t="s">
+      <c r="L15" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M15" s="1" t="s">
+      <c r="M15" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N15" s="1" t="s">
+      <c r="N15" s="2" t="s">
         <v>190</v>
       </c>
-      <c r="O15" s="1" t="s">
+      <c r="O15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="P15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q15" s="1" t="s">
+      <c r="P15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q15" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R15" s="1" t="s">
+      <c r="R15" s="2" t="s">
         <v>193</v>
       </c>
-      <c r="S15" s="1" t="s">
+      <c r="S15" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="T15" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U15" s="1" t="s">
+      <c r="T15" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U15" s="2" t="s">
         <v>192</v>
       </c>
       <c r="X15" s="1" t="s">
@@ -4760,28 +4763,28 @@
       </c>
     </row>
     <row r="16" ht="30" customHeight="1" spans="1:31">
-      <c r="A16" s="1">
+      <c r="A16" s="2">
         <v>564</v>
       </c>
-      <c r="B16" s="1" t="s">
+      <c r="B16" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C16" s="2" t="s">
         <v>198</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D16" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="E16" s="1" t="s">
+      <c r="E16" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F16" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="G16" s="1" t="s">
+      <c r="G16" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="H16" s="1" t="s">
+      <c r="H16" s="2" t="s">
         <v>203</v>
       </c>
       <c r="I16" s="2" t="s">
@@ -4793,31 +4796,32 @@
       <c r="K16" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L16" s="1" t="s">
+      <c r="L16" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M16" s="1" t="s">
+      <c r="M16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N16" s="1" t="s">
+      <c r="N16" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="O16" s="1" t="s">
+      <c r="O16" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="P16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q16" s="1">
+      <c r="P16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q16" s="2">
         <v>15840297123</v>
       </c>
-      <c r="S16" s="1" t="s">
+      <c r="R16" s="2"/>
+      <c r="S16" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="T16" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U16" s="1">
+      <c r="T16" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U16" s="2">
         <v>15840297123</v>
       </c>
       <c r="X16" s="1" t="s">
@@ -4843,28 +4847,28 @@
       </c>
     </row>
     <row r="17" ht="30" customHeight="1" spans="1:31">
-      <c r="A17" s="1">
+      <c r="A17" s="2">
         <v>1582</v>
       </c>
-      <c r="B17" s="1" t="s">
+      <c r="B17" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="C17" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="D17" s="1" t="s">
+      <c r="D17" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E17" s="1" t="s">
+      <c r="E17" s="2" t="s">
         <v>213</v>
       </c>
       <c r="F17" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="G17" s="1" t="s">
+      <c r="G17" s="2" t="s">
         <v>215</v>
       </c>
-      <c r="H17" s="1" t="s">
+      <c r="H17" s="2" t="s">
         <v>215</v>
       </c>
       <c r="I17" s="2" t="s">
@@ -4876,34 +4880,34 @@
       <c r="K17" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L17" s="1" t="s">
+      <c r="L17" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M17" s="1" t="s">
+      <c r="M17" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N17" s="1" t="s">
+      <c r="N17" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="O17" s="1" t="s">
+      <c r="O17" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="P17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q17" s="1">
+      <c r="P17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q17" s="2">
         <v>15904050430</v>
       </c>
-      <c r="R17" s="1" t="s">
+      <c r="R17" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="S17" s="1" t="s">
+      <c r="S17" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="T17" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U17" s="1">
+      <c r="T17" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U17" s="2">
         <v>15904050430</v>
       </c>
       <c r="X17" s="1" t="s">
@@ -4929,28 +4933,28 @@
       </c>
     </row>
     <row r="18" ht="30" customHeight="1" spans="1:31">
-      <c r="A18" s="1">
+      <c r="A18" s="2">
         <v>1159</v>
       </c>
-      <c r="B18" s="1" t="s">
+      <c r="B18" s="2" t="s">
         <v>221</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="C18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="D18" s="1" t="s">
+      <c r="D18" s="2" t="s">
         <v>223</v>
       </c>
-      <c r="E18" s="1" t="s">
+      <c r="E18" s="2" t="s">
         <v>116</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="G18" s="1" t="s">
+      <c r="G18" s="2" t="s">
         <v>224</v>
       </c>
-      <c r="H18" s="1" t="s">
+      <c r="H18" s="2" t="s">
         <v>224</v>
       </c>
       <c r="I18" s="2" t="s">
@@ -4962,34 +4966,34 @@
       <c r="K18" s="2" t="s">
         <v>227</v>
       </c>
-      <c r="L18" s="1" t="s">
+      <c r="L18" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M18" s="1" t="s">
+      <c r="M18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N18" s="1" t="s">
+      <c r="N18" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O18" s="1" t="s">
+      <c r="O18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="P18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q18" s="1">
+      <c r="P18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q18" s="2">
         <v>89864263</v>
       </c>
-      <c r="R18" s="1" t="s">
+      <c r="R18" s="2" t="s">
         <v>228</v>
       </c>
-      <c r="S18" s="1" t="s">
+      <c r="S18" s="2" t="s">
         <v>222</v>
       </c>
-      <c r="T18" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U18" s="1">
+      <c r="T18" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U18" s="2">
         <v>89864263</v>
       </c>
       <c r="X18" s="1" t="s">
@@ -5015,28 +5019,28 @@
       </c>
     </row>
     <row r="19" ht="30" customHeight="1" spans="1:31">
-      <c r="A19" s="1">
+      <c r="A19" s="2">
         <v>1162</v>
       </c>
-      <c r="B19" s="1" t="s">
+      <c r="B19" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="C19" s="2" t="s">
         <v>231</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="D19" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="E19" s="2" t="s">
         <v>233</v>
       </c>
       <c r="F19" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="G19" s="1" t="s">
+      <c r="G19" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="H19" s="1" t="s">
+      <c r="H19" s="2" t="s">
         <v>235</v>
       </c>
       <c r="I19" s="2" t="s">
@@ -5048,34 +5052,34 @@
       <c r="K19" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L19" s="1" t="s">
+      <c r="L19" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M19" s="1" t="s">
+      <c r="M19" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N19" s="1" t="s">
+      <c r="N19" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O19" s="1" t="s">
+      <c r="O19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q19" s="1" t="s">
+      <c r="P19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q19" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="R19" s="1" t="s">
+      <c r="R19" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S19" s="1" t="s">
+      <c r="S19" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="T19" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U19" s="1" t="s">
+      <c r="T19" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U19" s="2" t="s">
         <v>239</v>
       </c>
       <c r="X19" s="1" t="s">
@@ -5101,28 +5105,28 @@
       </c>
     </row>
     <row r="20" ht="30" customHeight="1" spans="1:31">
-      <c r="A20" s="1">
+      <c r="A20" s="2">
         <v>1161</v>
       </c>
-      <c r="B20" s="1" t="s">
+      <c r="B20" s="2" t="s">
         <v>243</v>
       </c>
-      <c r="C20" s="1" t="s">
+      <c r="C20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="D20" s="1" t="s">
+      <c r="D20" s="2" t="s">
         <v>244</v>
       </c>
-      <c r="E20" s="1" t="s">
+      <c r="E20" s="2" t="s">
         <v>245</v>
       </c>
       <c r="F20" s="2" t="s">
         <v>246</v>
       </c>
-      <c r="G20" s="1" t="s">
+      <c r="G20" s="2" t="s">
         <v>247</v>
       </c>
-      <c r="H20" s="1" t="s">
+      <c r="H20" s="2" t="s">
         <v>247</v>
       </c>
       <c r="I20" s="2" t="s">
@@ -5134,34 +5138,34 @@
       <c r="K20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L20" s="1" t="s">
+      <c r="L20" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M20" s="1" t="s">
+      <c r="M20" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N20" s="1" t="s">
+      <c r="N20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O20" s="1" t="s">
+      <c r="O20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="P20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q20" s="1" t="s">
+      <c r="P20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q20" s="2" t="s">
         <v>250</v>
       </c>
-      <c r="R20" s="1" t="s">
+      <c r="R20" s="2" t="s">
         <v>251</v>
       </c>
-      <c r="S20" s="1" t="s">
+      <c r="S20" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="T20" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U20" s="1" t="s">
+      <c r="T20" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U20" s="2" t="s">
         <v>250</v>
       </c>
       <c r="X20" s="1" t="s">
@@ -5187,28 +5191,28 @@
       </c>
     </row>
     <row r="21" ht="30" customHeight="1" spans="1:31">
-      <c r="A21" s="1">
+      <c r="A21" s="2">
         <v>1568</v>
       </c>
-      <c r="B21" s="1" t="s">
+      <c r="B21" s="2" t="s">
         <v>254</v>
       </c>
-      <c r="C21" s="1" t="s">
+      <c r="C21" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="D21" s="1" t="s">
+      <c r="D21" s="2" t="s">
         <v>256</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F21" s="2" t="s">
         <v>258</v>
       </c>
-      <c r="G21" s="1" t="s">
+      <c r="G21" s="2" t="s">
         <v>259</v>
       </c>
-      <c r="H21" s="1" t="s">
+      <c r="H21" s="2" t="s">
         <v>259</v>
       </c>
       <c r="I21" s="2" t="s">
@@ -5220,34 +5224,34 @@
       <c r="K21" s="2" t="s">
         <v>262</v>
       </c>
-      <c r="L21" s="1" t="s">
+      <c r="L21" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M21" s="1" t="s">
+      <c r="M21" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N21" s="1" t="s">
+      <c r="N21" s="2" t="s">
         <v>263</v>
       </c>
-      <c r="O21" s="1" t="s">
+      <c r="O21" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="P21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q21" s="1">
+      <c r="P21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q21" s="2">
         <v>89682408</v>
       </c>
-      <c r="R21" s="1" t="s">
+      <c r="R21" s="2" t="s">
         <v>264</v>
       </c>
-      <c r="S21" s="1" t="s">
+      <c r="S21" s="2" t="s">
         <v>255</v>
       </c>
-      <c r="T21" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U21" s="1">
+      <c r="T21" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U21" s="2">
         <v>89682408</v>
       </c>
       <c r="X21" s="1" t="s">
@@ -5273,28 +5277,28 @@
       </c>
     </row>
     <row r="22" ht="30" customHeight="1" spans="1:31">
-      <c r="A22" s="1">
+      <c r="A22" s="2">
         <v>1585</v>
       </c>
-      <c r="B22" s="1" t="s">
+      <c r="B22" s="2" t="s">
         <v>266</v>
       </c>
-      <c r="C22" s="1" t="s">
+      <c r="C22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="D22" s="1" t="s">
+      <c r="D22" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="E22" s="1" t="s">
+      <c r="E22" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F22" s="2" t="s">
         <v>268</v>
       </c>
-      <c r="G22" s="1" t="s">
+      <c r="G22" s="2" t="s">
         <v>269</v>
       </c>
-      <c r="H22" s="1" t="s">
+      <c r="H22" s="2" t="s">
         <v>269</v>
       </c>
       <c r="I22" s="2" t="s">
@@ -5306,34 +5310,34 @@
       <c r="K22" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L22" s="1" t="s">
+      <c r="L22" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M22" s="1" t="s">
+      <c r="M22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="1" t="s">
+      <c r="N22" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O22" s="1" t="s">
+      <c r="O22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="P22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q22" s="1">
+      <c r="P22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q22" s="2">
         <v>86372880</v>
       </c>
-      <c r="R22" s="1" t="s">
+      <c r="R22" s="2" t="s">
         <v>273</v>
       </c>
-      <c r="S22" s="1" t="s">
+      <c r="S22" s="2" t="s">
         <v>267</v>
       </c>
-      <c r="T22" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U22" s="1">
+      <c r="T22" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U22" s="2">
         <v>86372880</v>
       </c>
       <c r="X22" s="1" t="s">
@@ -5359,28 +5363,28 @@
       </c>
     </row>
     <row r="23" ht="30" customHeight="1" spans="1:31">
-      <c r="A23" s="1">
+      <c r="A23" s="2">
         <v>548</v>
       </c>
-      <c r="B23" s="1" t="s">
+      <c r="B23" s="2" t="s">
         <v>276</v>
       </c>
-      <c r="C23" s="1" t="s">
+      <c r="C23" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="D23" s="1" t="s">
+      <c r="D23" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E23" s="1" t="s">
+      <c r="E23" s="2" t="s">
         <v>2</v>
       </c>
       <c r="F23" s="2" t="s">
         <v>278</v>
       </c>
-      <c r="G23" s="1" t="s">
+      <c r="G23" s="2" t="s">
         <v>279</v>
       </c>
-      <c r="H23" s="1" t="s">
+      <c r="H23" s="2" t="s">
         <v>279</v>
       </c>
       <c r="I23" s="2" t="s">
@@ -5392,34 +5396,34 @@
       <c r="K23" s="2" t="s">
         <v>282</v>
       </c>
-      <c r="L23" s="1" t="s">
+      <c r="L23" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M23" s="1" t="s">
+      <c r="M23" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N23" s="1" t="s">
+      <c r="N23" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O23" s="1" t="s">
+      <c r="O23" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="P23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q23" s="1">
+      <c r="P23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q23" s="2">
         <v>89344938</v>
       </c>
-      <c r="R23" s="1" t="s">
+      <c r="R23" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="S23" s="1" t="s">
+      <c r="S23" s="2" t="s">
         <v>277</v>
       </c>
-      <c r="T23" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U23" s="1">
+      <c r="T23" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U23" s="2">
         <v>89344938</v>
       </c>
       <c r="X23" s="1" t="s">
@@ -5445,28 +5449,28 @@
       </c>
     </row>
     <row r="24" ht="30" customHeight="1" spans="1:31">
-      <c r="A24" s="1">
+      <c r="A24" s="2">
         <v>1167</v>
       </c>
-      <c r="B24" s="1" t="s">
+      <c r="B24" s="2" t="s">
         <v>287</v>
       </c>
-      <c r="C24" s="1" t="s">
+      <c r="C24" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="D24" s="1" t="s">
+      <c r="D24" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E24" s="1" t="s">
+      <c r="E24" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F24" s="2" t="s">
         <v>291</v>
       </c>
-      <c r="G24" s="1" t="s">
+      <c r="G24" s="2" t="s">
         <v>292</v>
       </c>
-      <c r="H24" s="1" t="s">
+      <c r="H24" s="2" t="s">
         <v>292</v>
       </c>
       <c r="I24" s="2" t="s">
@@ -5478,34 +5482,34 @@
       <c r="K24" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L24" s="1" t="s">
+      <c r="L24" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M24" s="1" t="s">
+      <c r="M24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N24" s="1" t="s">
+      <c r="N24" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O24" s="1" t="s">
+      <c r="O24" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="P24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q24" s="1">
+      <c r="P24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q24" s="2">
         <v>86893804</v>
       </c>
-      <c r="R24" s="1" t="s">
+      <c r="R24" s="2" t="s">
         <v>296</v>
       </c>
-      <c r="S24" s="1" t="s">
+      <c r="S24" s="2" t="s">
         <v>288</v>
       </c>
-      <c r="T24" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U24" s="1">
+      <c r="T24" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U24" s="2">
         <v>86893804</v>
       </c>
       <c r="X24" s="1" t="s">
@@ -5531,28 +5535,28 @@
       </c>
     </row>
     <row r="25" ht="30" customHeight="1" spans="1:31">
-      <c r="A25" s="1">
+      <c r="A25" s="2">
         <v>562</v>
       </c>
-      <c r="B25" s="1" t="s">
+      <c r="B25" s="2" t="s">
         <v>299</v>
       </c>
-      <c r="C25" s="1" t="s">
+      <c r="C25" s="2" t="s">
         <v>300</v>
       </c>
-      <c r="D25" s="1" t="s">
+      <c r="D25" s="2" t="s">
         <v>301</v>
       </c>
-      <c r="E25" s="1" t="s">
+      <c r="E25" s="2" t="s">
         <v>302</v>
       </c>
       <c r="F25" s="2" t="s">
         <v>303</v>
       </c>
-      <c r="G25" s="1" t="s">
+      <c r="G25" s="2" t="s">
         <v>304</v>
       </c>
-      <c r="H25" s="1" t="s">
+      <c r="H25" s="2" t="s">
         <v>304</v>
       </c>
       <c r="I25" s="2" t="s">
@@ -5564,34 +5568,34 @@
       <c r="K25" s="2" t="s">
         <v>307</v>
       </c>
-      <c r="L25" s="1" t="s">
+      <c r="L25" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M25" s="1" t="s">
+      <c r="M25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N25" s="1" t="s">
+      <c r="N25" s="2" t="s">
         <v>308</v>
       </c>
-      <c r="O25" s="1" t="s">
+      <c r="O25" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="P25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q25" s="1" t="s">
+      <c r="P25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q25" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="R25" s="1" t="s">
+      <c r="R25" s="2" t="s">
         <v>310</v>
       </c>
-      <c r="S25" s="1" t="s">
+      <c r="S25" s="2" t="s">
         <v>309</v>
       </c>
-      <c r="T25" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U25" s="1" t="s">
+      <c r="T25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U25" s="2" t="s">
         <v>192</v>
       </c>
       <c r="X25" s="1" t="s">
@@ -5617,25 +5621,26 @@
       </c>
     </row>
     <row r="26" ht="30" customHeight="1" spans="1:31">
-      <c r="A26" s="1">
+      <c r="A26" s="2">
         <v>572</v>
       </c>
-      <c r="B26" s="1" t="s">
+      <c r="B26" s="2" t="s">
         <v>313</v>
       </c>
-      <c r="C26" s="1" t="s">
+      <c r="C26" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="E26" s="1" t="s">
+      <c r="D26" s="2"/>
+      <c r="E26" s="2" t="s">
         <v>315</v>
       </c>
       <c r="F26" s="2" t="s">
         <v>316</v>
       </c>
-      <c r="G26" s="1" t="s">
+      <c r="G26" s="2" t="s">
         <v>317</v>
       </c>
-      <c r="H26" s="1" t="s">
+      <c r="H26" s="2" t="s">
         <v>317</v>
       </c>
       <c r="I26" s="2" t="s">
@@ -5647,34 +5652,34 @@
       <c r="K26" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L26" s="1" t="s">
+      <c r="L26" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M26" s="1" t="s">
+      <c r="M26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N26" s="1" t="s">
+      <c r="N26" s="2" t="s">
         <v>320</v>
       </c>
-      <c r="O26" s="1" t="s">
+      <c r="O26" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="P26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q26" s="1" t="s">
+      <c r="P26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q26" s="2" t="s">
         <v>321</v>
       </c>
-      <c r="R26" s="1" t="s">
+      <c r="R26" s="2" t="s">
         <v>322</v>
       </c>
-      <c r="S26" s="1" t="s">
+      <c r="S26" s="2" t="s">
         <v>314</v>
       </c>
-      <c r="T26" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U26" s="1" t="s">
+      <c r="T26" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U26" s="2" t="s">
         <v>321</v>
       </c>
       <c r="X26" s="1" t="s">
@@ -5700,28 +5705,28 @@
       </c>
     </row>
     <row r="27" ht="30" customHeight="1" spans="1:31">
-      <c r="A27" s="1">
+      <c r="A27" s="2">
         <v>1183</v>
       </c>
-      <c r="B27" s="1" t="s">
+      <c r="B27" s="2" t="s">
         <v>325</v>
       </c>
-      <c r="C27" s="1" t="s">
+      <c r="C27" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D27" s="1" t="s">
+      <c r="D27" s="2" t="s">
         <v>327</v>
       </c>
-      <c r="E27" s="1" t="s">
+      <c r="E27" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F27" s="2" t="s">
         <v>328</v>
       </c>
-      <c r="G27" s="1" t="s">
+      <c r="G27" s="2" t="s">
         <v>329</v>
       </c>
-      <c r="H27" s="1" t="s">
+      <c r="H27" s="2" t="s">
         <v>330</v>
       </c>
       <c r="I27" s="2" t="s">
@@ -5733,34 +5738,34 @@
       <c r="K27" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="L27" s="1" t="s">
+      <c r="L27" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M27" s="1" t="s">
+      <c r="M27" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N27" s="1" t="s">
+      <c r="N27" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O27" s="1" t="s">
+      <c r="O27" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="P27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q27" s="1">
+      <c r="P27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q27" s="2">
         <v>87403345</v>
       </c>
-      <c r="R27" s="1" t="s">
+      <c r="R27" s="2" t="s">
         <v>334</v>
       </c>
-      <c r="S27" s="1" t="s">
+      <c r="S27" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="T27" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U27" s="1">
+      <c r="T27" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U27" s="2">
         <v>87403345</v>
       </c>
       <c r="X27" s="1" t="s">
@@ -5786,28 +5791,28 @@
       </c>
     </row>
     <row r="28" ht="30" customHeight="1" spans="1:31">
-      <c r="A28" s="1">
+      <c r="A28" s="2">
         <v>577</v>
       </c>
-      <c r="B28" s="1" t="s">
+      <c r="B28" s="2" t="s">
         <v>336</v>
       </c>
-      <c r="C28" s="1" t="s">
+      <c r="C28" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D28" s="1" t="s">
+      <c r="D28" s="2" t="s">
         <v>338</v>
       </c>
-      <c r="E28" s="1" t="s">
+      <c r="E28" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F28" s="2" t="s">
         <v>339</v>
       </c>
-      <c r="G28" s="1" t="s">
+      <c r="G28" s="2" t="s">
         <v>340</v>
       </c>
-      <c r="H28" s="1" t="s">
+      <c r="H28" s="2" t="s">
         <v>340</v>
       </c>
       <c r="I28" s="2" t="s">
@@ -5819,34 +5824,34 @@
       <c r="K28" s="2" t="s">
         <v>343</v>
       </c>
-      <c r="L28" s="1" t="s">
+      <c r="L28" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M28" s="1" t="s">
+      <c r="M28" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N28" s="1" t="s">
+      <c r="N28" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="O28" s="1" t="s">
+      <c r="O28" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="P28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q28" s="1">
+      <c r="P28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q28" s="2">
         <v>24344156</v>
       </c>
-      <c r="R28" s="1" t="s">
+      <c r="R28" s="2" t="s">
         <v>344</v>
       </c>
-      <c r="S28" s="1" t="s">
+      <c r="S28" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="T28" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U28" s="1">
+      <c r="T28" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U28" s="2">
         <v>24344156</v>
       </c>
       <c r="X28" s="1" t="s">
@@ -5872,28 +5877,28 @@
       </c>
     </row>
     <row r="29" ht="30" customHeight="1" spans="1:31">
-      <c r="A29" s="1">
+      <c r="A29" s="2">
         <v>1175</v>
       </c>
-      <c r="B29" s="1" t="s">
+      <c r="B29" s="2" t="s">
         <v>347</v>
       </c>
-      <c r="C29" s="1" t="s">
+      <c r="C29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="D29" s="1" t="s">
+      <c r="D29" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E29" s="1" t="s">
+      <c r="E29" s="2" t="s">
         <v>349</v>
       </c>
       <c r="F29" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G29" s="1" t="s">
+      <c r="G29" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="H29" s="1" t="s">
+      <c r="H29" s="2" t="s">
         <v>351</v>
       </c>
       <c r="I29" s="2" t="s">
@@ -5905,34 +5910,34 @@
       <c r="K29" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L29" s="1" t="s">
+      <c r="L29" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M29" s="1" t="s">
+      <c r="M29" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N29" s="1" t="s">
+      <c r="N29" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="O29" s="1" t="s">
+      <c r="O29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="P29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q29" s="1" t="s">
+      <c r="P29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q29" s="2" t="s">
         <v>353</v>
       </c>
-      <c r="R29" s="1" t="s">
+      <c r="R29" s="2" t="s">
         <v>354</v>
       </c>
-      <c r="S29" s="1" t="s">
+      <c r="S29" s="2" t="s">
         <v>348</v>
       </c>
-      <c r="T29" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U29" s="1" t="s">
+      <c r="T29" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U29" s="2" t="s">
         <v>353</v>
       </c>
       <c r="X29" s="1" t="s">
@@ -5958,28 +5963,28 @@
       </c>
     </row>
     <row r="30" ht="30" customHeight="1" spans="1:31">
-      <c r="A30" s="1">
+      <c r="A30" s="2">
         <v>563</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B30" s="2" t="s">
         <v>357</v>
       </c>
-      <c r="C30" s="1" t="s">
+      <c r="C30" s="2" t="s">
         <v>358</v>
       </c>
-      <c r="D30" s="1" t="s">
+      <c r="D30" s="2" t="s">
         <v>359</v>
       </c>
-      <c r="E30" s="1" t="s">
+      <c r="E30" s="2" t="s">
         <v>360</v>
       </c>
       <c r="F30" s="2" t="s">
         <v>361</v>
       </c>
-      <c r="G30" s="1" t="s">
+      <c r="G30" s="2" t="s">
         <v>362</v>
       </c>
-      <c r="H30" s="1" t="s">
+      <c r="H30" s="2" t="s">
         <v>363</v>
       </c>
       <c r="I30" s="2" t="s">
@@ -5991,34 +5996,34 @@
       <c r="K30" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L30" s="1" t="s">
+      <c r="L30" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M30" s="1" t="s">
+      <c r="M30" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N30" s="1" t="s">
+      <c r="N30" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O30" s="1" t="s">
+      <c r="O30" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="P30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q30" s="1" t="s">
+      <c r="P30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q30" s="2" t="s">
         <v>367</v>
       </c>
-      <c r="R30" s="1" t="s">
+      <c r="R30" s="2" t="s">
         <v>368</v>
       </c>
-      <c r="S30" s="1" t="s">
+      <c r="S30" s="2" t="s">
         <v>366</v>
       </c>
-      <c r="T30" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U30" s="1" t="s">
+      <c r="T30" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U30" s="2" t="s">
         <v>367</v>
       </c>
       <c r="X30" s="1" t="s">
@@ -6044,25 +6049,26 @@
       </c>
     </row>
     <row r="31" ht="30" customHeight="1" spans="1:31">
-      <c r="A31" s="1">
+      <c r="A31" s="2">
         <v>1176</v>
       </c>
-      <c r="B31" s="1" t="s">
+      <c r="B31" s="2" t="s">
         <v>372</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C31" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="E31" s="1" t="s">
+      <c r="D31" s="2"/>
+      <c r="E31" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F31" s="2" t="s">
         <v>350</v>
       </c>
-      <c r="G31" s="1" t="s">
+      <c r="G31" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H31" s="1" t="s">
+      <c r="H31" s="2" t="s">
         <v>374</v>
       </c>
       <c r="I31" s="2" t="s">
@@ -6074,31 +6080,32 @@
       <c r="K31" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L31" s="1" t="s">
+      <c r="L31" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M31" s="1" t="s">
+      <c r="M31" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N31" s="1" t="s">
+      <c r="N31" s="2" t="s">
         <v>377</v>
       </c>
-      <c r="O31" s="1" t="s">
+      <c r="O31" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="P31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q31" s="1" t="s">
+      <c r="P31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q31" s="2" t="s">
         <v>378</v>
       </c>
-      <c r="S31" s="1" t="s">
+      <c r="R31" s="2"/>
+      <c r="S31" s="2" t="s">
         <v>373</v>
       </c>
-      <c r="T31" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U31" s="1" t="s">
+      <c r="T31" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U31" s="2" t="s">
         <v>378</v>
       </c>
       <c r="X31" s="1" t="s">
@@ -6124,25 +6131,26 @@
       </c>
     </row>
     <row r="32" ht="30" customHeight="1" spans="1:31">
-      <c r="A32" s="1">
+      <c r="A32" s="2">
         <v>1597</v>
       </c>
-      <c r="B32" s="1" t="s">
+      <c r="B32" s="2" t="s">
         <v>380</v>
       </c>
-      <c r="C32" s="1" t="s">
+      <c r="C32" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="E32" s="1" t="s">
+      <c r="D32" s="2"/>
+      <c r="E32" s="2" t="s">
         <v>382</v>
       </c>
       <c r="F32" s="2" t="s">
         <v>383</v>
       </c>
-      <c r="G32" s="1" t="s">
+      <c r="G32" s="2" t="s">
         <v>384</v>
       </c>
-      <c r="H32" s="1" t="s">
+      <c r="H32" s="2" t="s">
         <v>384</v>
       </c>
       <c r="I32" s="2" t="s">
@@ -6154,34 +6162,34 @@
       <c r="K32" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L32" s="1" t="s">
+      <c r="L32" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M32" s="1" t="s">
+      <c r="M32" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N32" s="1" t="s">
+      <c r="N32" s="2" t="s">
         <v>388</v>
       </c>
-      <c r="O32" s="1" t="s">
+      <c r="O32" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="P32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q32" s="1">
+      <c r="P32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q32" s="2">
         <v>22865688</v>
       </c>
-      <c r="R32" s="1" t="s">
+      <c r="R32" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="S32" s="1" t="s">
+      <c r="S32" s="2" t="s">
         <v>381</v>
       </c>
-      <c r="T32" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U32" s="1">
+      <c r="T32" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U32" s="2">
         <v>22865688</v>
       </c>
       <c r="X32" s="1" t="s">
@@ -6207,25 +6215,26 @@
       </c>
     </row>
     <row r="33" ht="30" customHeight="1" spans="1:31">
-      <c r="A33" s="1">
+      <c r="A33" s="2">
         <v>1589</v>
       </c>
-      <c r="B33" s="1" t="s">
+      <c r="B33" s="2" t="s">
         <v>392</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C33" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="E33" s="1" t="s">
+      <c r="D33" s="2"/>
+      <c r="E33" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F33" s="2" t="s">
         <v>394</v>
       </c>
-      <c r="G33" s="1" t="s">
+      <c r="G33" s="2" t="s">
         <v>395</v>
       </c>
-      <c r="H33" s="1" t="s">
+      <c r="H33" s="2" t="s">
         <v>395</v>
       </c>
       <c r="I33" s="2" t="s">
@@ -6237,31 +6246,32 @@
       <c r="K33" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L33" s="1" t="s">
+      <c r="L33" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M33" s="1" t="s">
+      <c r="M33" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N33" s="1" t="s">
+      <c r="N33" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="O33" s="1" t="s">
+      <c r="O33" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="P33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q33" s="1">
+      <c r="P33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q33" s="2">
         <v>15042504616</v>
       </c>
-      <c r="S33" s="1" t="s">
+      <c r="R33" s="2"/>
+      <c r="S33" s="2" t="s">
         <v>393</v>
       </c>
-      <c r="T33" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U33" s="1">
+      <c r="T33" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U33" s="2">
         <v>15042504616</v>
       </c>
       <c r="X33" s="1" t="s">
@@ -6287,25 +6297,26 @@
       </c>
     </row>
     <row r="34" ht="30" customHeight="1" spans="1:31">
-      <c r="A34" s="1">
+      <c r="A34" s="2">
         <v>1590</v>
       </c>
-      <c r="B34" s="1" t="s">
+      <c r="B34" s="2" t="s">
         <v>399</v>
       </c>
-      <c r="C34" s="1" t="s">
+      <c r="C34" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="E34" s="1" t="s">
+      <c r="D34" s="2"/>
+      <c r="E34" s="2" t="s">
         <v>257</v>
       </c>
       <c r="F34" s="2" t="s">
         <v>401</v>
       </c>
-      <c r="G34" s="1" t="s">
+      <c r="G34" s="2" t="s">
         <v>402</v>
       </c>
-      <c r="H34" s="1" t="s">
+      <c r="H34" s="2" t="s">
         <v>402</v>
       </c>
       <c r="I34" s="2" t="s">
@@ -6317,31 +6328,32 @@
       <c r="K34" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L34" s="1" t="s">
+      <c r="L34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M34" s="1" t="s">
+      <c r="M34" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N34" s="1" t="s">
+      <c r="N34" s="2" t="s">
         <v>397</v>
       </c>
-      <c r="O34" s="1" t="s">
+      <c r="O34" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="P34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q34" s="1">
+      <c r="P34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q34" s="2">
         <v>89301526</v>
       </c>
-      <c r="S34" s="1" t="s">
+      <c r="R34" s="2"/>
+      <c r="S34" s="2" t="s">
         <v>400</v>
       </c>
-      <c r="T34" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U34" s="1">
+      <c r="T34" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U34" s="2">
         <v>89301526</v>
       </c>
       <c r="X34" s="1" t="s">
@@ -6367,25 +6379,26 @@
       </c>
     </row>
     <row r="35" ht="30" customHeight="1" spans="1:31">
-      <c r="A35" s="1">
+      <c r="A35" s="2">
         <v>1588</v>
       </c>
-      <c r="B35" s="1" t="s">
+      <c r="B35" s="2" t="s">
         <v>405</v>
       </c>
-      <c r="C35" s="1" t="s">
+      <c r="C35" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="E35" s="1" t="s">
+      <c r="D35" s="2"/>
+      <c r="E35" s="2" t="s">
         <v>407</v>
       </c>
       <c r="F35" s="2" t="s">
         <v>408</v>
       </c>
-      <c r="G35" s="1" t="s">
+      <c r="G35" s="2" t="s">
         <v>409</v>
       </c>
-      <c r="H35" s="1" t="s">
+      <c r="H35" s="2" t="s">
         <v>409</v>
       </c>
       <c r="I35" s="2" t="s">
@@ -6397,34 +6410,34 @@
       <c r="K35" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L35" s="1" t="s">
+      <c r="L35" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M35" s="1" t="s">
+      <c r="M35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N35" s="1" t="s">
+      <c r="N35" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O35" s="1" t="s">
+      <c r="O35" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="P35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q35" s="1" t="s">
+      <c r="P35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q35" s="2" t="s">
         <v>411</v>
       </c>
-      <c r="R35" s="1" t="s">
+      <c r="R35" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="S35" s="1" t="s">
+      <c r="S35" s="2" t="s">
         <v>406</v>
       </c>
-      <c r="T35" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U35" s="1" t="s">
+      <c r="T35" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U35" s="2" t="s">
         <v>411</v>
       </c>
       <c r="X35" s="1" t="s">
@@ -6450,25 +6463,26 @@
       </c>
     </row>
     <row r="36" ht="30" customHeight="1" spans="1:31">
-      <c r="A36" s="1">
+      <c r="A36" s="2">
         <v>1569</v>
       </c>
-      <c r="B36" s="1" t="s">
+      <c r="B36" s="2" t="s">
         <v>414</v>
       </c>
-      <c r="C36" s="1" t="s">
+      <c r="C36" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="E36" s="1" t="s">
+      <c r="D36" s="2"/>
+      <c r="E36" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F36" s="2" t="s">
         <v>416</v>
       </c>
-      <c r="G36" s="1" t="s">
+      <c r="G36" s="2" t="s">
         <v>417</v>
       </c>
-      <c r="H36" s="1" t="s">
+      <c r="H36" s="2" t="s">
         <v>417</v>
       </c>
       <c r="I36" s="2" t="s">
@@ -6480,31 +6494,32 @@
       <c r="K36" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L36" s="1" t="s">
+      <c r="L36" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M36" s="1" t="s">
+      <c r="M36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N36" s="1" t="s">
+      <c r="N36" s="2" t="s">
         <v>419</v>
       </c>
-      <c r="O36" s="1" t="s">
+      <c r="O36" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="P36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q36" s="1">
+      <c r="P36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q36" s="2">
         <v>13840399618</v>
       </c>
-      <c r="S36" s="1" t="s">
+      <c r="R36" s="2"/>
+      <c r="S36" s="2" t="s">
         <v>415</v>
       </c>
-      <c r="T36" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U36" s="1">
+      <c r="T36" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U36" s="2">
         <v>13840399618</v>
       </c>
       <c r="X36" s="1" t="s">
@@ -6530,28 +6545,28 @@
       </c>
     </row>
     <row r="37" ht="30" customHeight="1" spans="1:31">
-      <c r="A37" s="1">
+      <c r="A37" s="2">
         <v>1164</v>
       </c>
-      <c r="B37" s="1" t="s">
+      <c r="B37" s="2" t="s">
         <v>421</v>
       </c>
-      <c r="C37" s="1" t="s">
+      <c r="C37" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="D37" s="1" t="s">
+      <c r="D37" s="2" t="s">
         <v>423</v>
       </c>
-      <c r="E37" s="1" t="s">
+      <c r="E37" s="2" t="s">
         <v>424</v>
       </c>
       <c r="F37" s="2" t="s">
         <v>425</v>
       </c>
-      <c r="G37" s="1" t="s">
+      <c r="G37" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H37" s="1" t="s">
+      <c r="H37" s="2" t="s">
         <v>374</v>
       </c>
       <c r="I37" s="2" t="s">
@@ -6563,34 +6578,34 @@
       <c r="K37" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L37" s="1" t="s">
+      <c r="L37" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M37" s="1" t="s">
+      <c r="M37" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N37" s="1" t="s">
+      <c r="N37" s="2" t="s">
         <v>428</v>
       </c>
-      <c r="O37" s="1" t="s">
+      <c r="O37" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="P37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q37" s="1">
+      <c r="P37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q37" s="2">
         <v>13804996448</v>
       </c>
-      <c r="R37" s="1" t="s">
+      <c r="R37" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="S37" s="1" t="s">
+      <c r="S37" s="2" t="s">
         <v>422</v>
       </c>
-      <c r="T37" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U37" s="1">
+      <c r="T37" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U37" s="2">
         <v>13804996448</v>
       </c>
       <c r="X37" s="1" t="s">
@@ -6616,25 +6631,26 @@
       </c>
     </row>
     <row r="38" ht="30" customHeight="1" spans="1:31">
-      <c r="A38" s="1">
+      <c r="A38" s="2">
         <v>1580</v>
       </c>
-      <c r="B38" s="1" t="s">
+      <c r="B38" s="2" t="s">
         <v>430</v>
       </c>
-      <c r="C38" s="1" t="s">
+      <c r="C38" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="E38" s="1" t="s">
+      <c r="D38" s="2"/>
+      <c r="E38" s="2" t="s">
         <v>424</v>
       </c>
       <c r="F38" s="2" t="s">
         <v>432</v>
       </c>
-      <c r="G38" s="1" t="s">
+      <c r="G38" s="2" t="s">
         <v>374</v>
       </c>
-      <c r="H38" s="1" t="s">
+      <c r="H38" s="2" t="s">
         <v>374</v>
       </c>
       <c r="I38" s="2" t="s">
@@ -6646,31 +6662,32 @@
       <c r="K38" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L38" s="1" t="s">
+      <c r="L38" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M38" s="1" t="s">
+      <c r="M38" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N38" s="1" t="s">
+      <c r="N38" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="O38" s="1" t="s">
+      <c r="O38" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="P38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q38" s="1" t="s">
+      <c r="P38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q38" s="2" t="s">
         <v>435</v>
       </c>
-      <c r="S38" s="1" t="s">
+      <c r="R38" s="2"/>
+      <c r="S38" s="2" t="s">
         <v>431</v>
       </c>
-      <c r="T38" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U38" s="1" t="s">
+      <c r="T38" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U38" s="2" t="s">
         <v>435</v>
       </c>
       <c r="X38" s="1" t="s">
@@ -6696,28 +6713,28 @@
       </c>
     </row>
     <row r="39" ht="30" customHeight="1" spans="1:31">
-      <c r="A39" s="1">
+      <c r="A39" s="2">
         <v>1182</v>
       </c>
-      <c r="B39" s="1" t="s">
+      <c r="B39" s="2" t="s">
         <v>437</v>
       </c>
-      <c r="C39" s="1" t="s">
+      <c r="C39" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="D39" s="2" t="s">
         <v>439</v>
       </c>
-      <c r="E39" s="1" t="s">
+      <c r="E39" s="2" t="s">
         <v>48</v>
       </c>
       <c r="F39" s="2" t="s">
         <v>440</v>
       </c>
-      <c r="G39" s="1" t="s">
+      <c r="G39" s="2" t="s">
         <v>441</v>
       </c>
-      <c r="H39" s="1" t="s">
+      <c r="H39" s="2" t="s">
         <v>441</v>
       </c>
       <c r="I39" s="2" t="s">
@@ -6729,34 +6746,34 @@
       <c r="K39" s="2" t="s">
         <v>444</v>
       </c>
-      <c r="L39" s="1" t="s">
+      <c r="L39" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M39" s="1" t="s">
+      <c r="M39" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N39" s="1" t="s">
+      <c r="N39" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O39" s="1" t="s">
+      <c r="O39" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="P39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q39" s="1">
+      <c r="P39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q39" s="2">
         <v>13504025613</v>
       </c>
-      <c r="R39" s="1" t="s">
+      <c r="R39" s="2" t="s">
         <v>445</v>
       </c>
-      <c r="S39" s="1" t="s">
+      <c r="S39" s="2" t="s">
         <v>438</v>
       </c>
-      <c r="T39" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U39" s="1">
+      <c r="T39" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U39" s="2">
         <v>13504025613</v>
       </c>
       <c r="X39" s="1" t="s">
@@ -6782,28 +6799,28 @@
       </c>
     </row>
     <row r="40" ht="30" customHeight="1" spans="1:31">
-      <c r="A40" s="1">
+      <c r="A40" s="2">
         <v>559</v>
       </c>
-      <c r="B40" s="1" t="s">
+      <c r="B40" s="2" t="s">
         <v>448</v>
       </c>
-      <c r="C40" s="1" t="s">
+      <c r="C40" s="2" t="s">
         <v>449</v>
       </c>
-      <c r="D40" s="1" t="s">
+      <c r="D40" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E40" s="1" t="s">
+      <c r="E40" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F40" s="2" t="s">
         <v>450</v>
       </c>
-      <c r="G40" s="1" t="s">
+      <c r="G40" s="2" t="s">
         <v>451</v>
       </c>
-      <c r="H40" s="1" t="s">
+      <c r="H40" s="2" t="s">
         <v>451</v>
       </c>
       <c r="I40" s="2" t="s">
@@ -6815,34 +6832,34 @@
       <c r="K40" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L40" s="1" t="s">
+      <c r="L40" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M40" s="1" t="s">
+      <c r="M40" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N40" s="1" t="s">
+      <c r="N40" s="2" t="s">
         <v>454</v>
       </c>
-      <c r="O40" s="1" t="s">
+      <c r="O40" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="P40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q40" s="1" t="s">
+      <c r="P40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q40" s="2" t="s">
         <v>456</v>
       </c>
-      <c r="R40" s="1" t="s">
+      <c r="R40" s="2" t="s">
         <v>457</v>
       </c>
-      <c r="S40" s="1" t="s">
+      <c r="S40" s="2" t="s">
         <v>455</v>
       </c>
-      <c r="T40" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U40" s="1" t="s">
+      <c r="T40" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U40" s="2" t="s">
         <v>456</v>
       </c>
       <c r="X40" s="1" t="s">
@@ -6865,28 +6882,28 @@
       </c>
     </row>
     <row r="41" ht="30" customHeight="1" spans="1:31">
-      <c r="A41" s="1">
+      <c r="A41" s="2">
         <v>1573</v>
       </c>
-      <c r="B41" s="1" t="s">
+      <c r="B41" s="2" t="s">
         <v>460</v>
       </c>
-      <c r="C41" s="1" t="s">
+      <c r="C41" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="D41" s="1" t="s">
+      <c r="D41" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E41" s="1" t="s">
+      <c r="E41" s="2" t="s">
         <v>463</v>
       </c>
       <c r="F41" s="2" t="s">
         <v>464</v>
       </c>
-      <c r="G41" s="1" t="s">
+      <c r="G41" s="2" t="s">
         <v>465</v>
       </c>
-      <c r="H41" s="1" t="s">
+      <c r="H41" s="2" t="s">
         <v>465</v>
       </c>
       <c r="I41" s="2" t="s">
@@ -6898,34 +6915,34 @@
       <c r="K41" s="2" t="s">
         <v>468</v>
       </c>
-      <c r="L41" s="1" t="s">
+      <c r="L41" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M41" s="1" t="s">
+      <c r="M41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N41" s="1" t="s">
+      <c r="N41" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="O41" s="1" t="s">
+      <c r="O41" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="P41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q41" s="1">
+      <c r="P41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q41" s="2">
         <v>13644991114</v>
       </c>
-      <c r="R41" s="1" t="s">
+      <c r="R41" s="2" t="s">
         <v>470</v>
       </c>
-      <c r="S41" s="1" t="s">
+      <c r="S41" s="2" t="s">
         <v>461</v>
       </c>
-      <c r="T41" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U41" s="1">
+      <c r="T41" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U41" s="2">
         <v>13644991114</v>
       </c>
       <c r="X41" s="1" t="s">
@@ -6951,28 +6968,28 @@
       </c>
     </row>
     <row r="42" ht="30" customHeight="1" spans="1:31">
-      <c r="A42" s="1">
+      <c r="A42" s="2">
         <v>550</v>
       </c>
-      <c r="B42" s="1" t="s">
+      <c r="B42" s="2" t="s">
         <v>473</v>
       </c>
-      <c r="C42" s="1" t="s">
+      <c r="C42" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="D42" s="1" t="s">
+      <c r="D42" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E42" s="1" t="s">
+      <c r="E42" s="2" t="s">
         <v>475</v>
       </c>
       <c r="F42" s="2" t="s">
         <v>476</v>
       </c>
-      <c r="G42" s="1" t="s">
+      <c r="G42" s="2" t="s">
         <v>477</v>
       </c>
-      <c r="H42" s="1" t="s">
+      <c r="H42" s="2" t="s">
         <v>477</v>
       </c>
       <c r="I42" s="2" t="s">
@@ -6984,34 +7001,34 @@
       <c r="K42" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L42" s="1" t="s">
+      <c r="L42" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M42" s="1" t="s">
+      <c r="M42" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N42" s="1" t="s">
+      <c r="N42" s="2" t="s">
         <v>480</v>
       </c>
-      <c r="O42" s="1" t="s">
+      <c r="O42" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="P42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q42" s="1">
+      <c r="P42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q42" s="2">
         <v>31312636</v>
       </c>
-      <c r="R42" s="1" t="s">
+      <c r="R42" s="2" t="s">
         <v>481</v>
       </c>
-      <c r="S42" s="1" t="s">
+      <c r="S42" s="2" t="s">
         <v>474</v>
       </c>
-      <c r="T42" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U42" s="1">
+      <c r="T42" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U42" s="2">
         <v>31312636</v>
       </c>
       <c r="X42" s="1" t="s">
@@ -7037,25 +7054,26 @@
       </c>
     </row>
     <row r="43" ht="30" customHeight="1" spans="1:31">
-      <c r="A43" s="1">
+      <c r="A43" s="2">
         <v>549</v>
       </c>
-      <c r="B43" s="1" t="s">
+      <c r="B43" s="2" t="s">
         <v>484</v>
       </c>
-      <c r="C43" s="1" t="s">
+      <c r="C43" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="E43" s="1" t="s">
+      <c r="D43" s="2"/>
+      <c r="E43" s="2" t="s">
         <v>486</v>
       </c>
       <c r="F43" s="2" t="s">
         <v>487</v>
       </c>
-      <c r="G43" s="1" t="s">
+      <c r="G43" s="2" t="s">
         <v>488</v>
       </c>
-      <c r="H43" s="1" t="s">
+      <c r="H43" s="2" t="s">
         <v>488</v>
       </c>
       <c r="I43" s="2" t="s">
@@ -7067,34 +7085,34 @@
       <c r="K43" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L43" s="1" t="s">
+      <c r="L43" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M43" s="1" t="s">
+      <c r="M43" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N43" s="1" t="s">
+      <c r="N43" s="2" t="s">
         <v>491</v>
       </c>
-      <c r="O43" s="1" t="s">
+      <c r="O43" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="P43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q43" s="1">
+      <c r="P43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q43" s="2">
         <v>88053386</v>
       </c>
-      <c r="R43" s="1" t="s">
+      <c r="R43" s="2" t="s">
         <v>492</v>
       </c>
-      <c r="S43" s="1" t="s">
+      <c r="S43" s="2" t="s">
         <v>485</v>
       </c>
-      <c r="T43" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U43" s="1">
+      <c r="T43" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U43" s="2">
         <v>88053386</v>
       </c>
       <c r="X43" s="1" t="s">
@@ -7120,28 +7138,28 @@
       </c>
     </row>
     <row r="44" ht="30" customHeight="1" spans="1:31">
-      <c r="A44" s="1">
+      <c r="A44" s="2">
         <v>573</v>
       </c>
-      <c r="B44" s="1" t="s">
+      <c r="B44" s="2" t="s">
         <v>495</v>
       </c>
-      <c r="C44" s="1" t="s">
+      <c r="C44" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="D44" s="1" t="s">
+      <c r="D44" s="2" t="s">
         <v>497</v>
       </c>
-      <c r="E44" s="1" t="s">
+      <c r="E44" s="2" t="s">
         <v>498</v>
       </c>
       <c r="F44" s="2" t="s">
         <v>499</v>
       </c>
-      <c r="G44" s="1" t="s">
+      <c r="G44" s="2" t="s">
         <v>500</v>
       </c>
-      <c r="H44" s="1" t="s">
+      <c r="H44" s="2" t="s">
         <v>500</v>
       </c>
       <c r="I44" s="2" t="s">
@@ -7153,34 +7171,34 @@
       <c r="K44" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L44" s="1" t="s">
+      <c r="L44" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M44" s="1" t="s">
+      <c r="M44" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N44" s="1" t="s">
+      <c r="N44" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="O44" s="1" t="s">
+      <c r="O44" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="P44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q44" s="1" t="s">
+      <c r="P44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q44" s="2" t="s">
         <v>503</v>
       </c>
-      <c r="R44" s="1" t="s">
+      <c r="R44" s="2" t="s">
         <v>504</v>
       </c>
-      <c r="S44" s="1" t="s">
+      <c r="S44" s="2" t="s">
         <v>496</v>
       </c>
-      <c r="T44" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U44" s="1" t="s">
+      <c r="T44" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U44" s="2" t="s">
         <v>503</v>
       </c>
       <c r="X44" s="1" t="s">
@@ -7206,28 +7224,28 @@
       </c>
     </row>
     <row r="45" ht="30" customHeight="1" spans="1:31">
-      <c r="A45" s="1">
+      <c r="A45" s="2">
         <v>1594</v>
       </c>
-      <c r="B45" s="1" t="s">
+      <c r="B45" s="2" t="s">
         <v>507</v>
       </c>
-      <c r="C45" s="1" t="s">
+      <c r="C45" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="D45" s="1" t="s">
+      <c r="D45" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E45" s="1" t="s">
+      <c r="E45" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F45" s="2" t="s">
         <v>509</v>
       </c>
-      <c r="G45" s="1" t="s">
+      <c r="G45" s="2" t="s">
         <v>510</v>
       </c>
-      <c r="H45" s="1" t="s">
+      <c r="H45" s="2" t="s">
         <v>510</v>
       </c>
       <c r="I45" s="2" t="s">
@@ -7239,34 +7257,34 @@
       <c r="K45" s="2" t="s">
         <v>512</v>
       </c>
-      <c r="L45" s="1" t="s">
+      <c r="L45" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M45" s="1" t="s">
+      <c r="M45" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N45" s="1" t="s">
+      <c r="N45" s="2" t="s">
         <v>513</v>
       </c>
-      <c r="O45" s="1" t="s">
+      <c r="O45" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="P45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q45" s="1">
+      <c r="P45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q45" s="2">
         <v>13940570681</v>
       </c>
-      <c r="R45" s="1" t="s">
+      <c r="R45" s="2" t="s">
         <v>514</v>
       </c>
-      <c r="S45" s="1" t="s">
+      <c r="S45" s="2" t="s">
         <v>508</v>
       </c>
-      <c r="T45" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U45" s="1">
+      <c r="T45" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U45" s="2">
         <v>13940570681</v>
       </c>
       <c r="X45" s="1" t="s">
@@ -7292,28 +7310,28 @@
       </c>
     </row>
     <row r="46" ht="30" customHeight="1" spans="1:31">
-      <c r="A46" s="1">
+      <c r="A46" s="2">
         <v>1576</v>
       </c>
-      <c r="B46" s="1" t="s">
+      <c r="B46" s="2" t="s">
         <v>517</v>
       </c>
-      <c r="C46" s="1" t="s">
+      <c r="C46" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="D46" s="1" t="s">
+      <c r="D46" s="2" t="s">
         <v>289</v>
       </c>
-      <c r="E46" s="1" t="s">
+      <c r="E46" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F46" s="2" t="s">
         <v>519</v>
       </c>
-      <c r="G46" s="1" t="s">
+      <c r="G46" s="2" t="s">
         <v>520</v>
       </c>
-      <c r="H46" s="1" t="s">
+      <c r="H46" s="2" t="s">
         <v>520</v>
       </c>
       <c r="I46" s="2" t="s">
@@ -7325,34 +7343,34 @@
       <c r="K46" s="2" t="s">
         <v>523</v>
       </c>
-      <c r="L46" s="1" t="s">
+      <c r="L46" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M46" s="1" t="s">
+      <c r="M46" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N46" s="1" t="s">
+      <c r="N46" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="O46" s="1" t="s">
+      <c r="O46" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="P46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q46" s="1">
+      <c r="P46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q46" s="2">
         <v>2483252555</v>
       </c>
-      <c r="R46" s="1" t="s">
+      <c r="R46" s="2" t="s">
         <v>524</v>
       </c>
-      <c r="S46" s="1" t="s">
+      <c r="S46" s="2" t="s">
         <v>518</v>
       </c>
-      <c r="T46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U46" s="1">
+      <c r="T46" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U46" s="2">
         <v>2483252555</v>
       </c>
       <c r="X46" s="1" t="s">
@@ -7378,28 +7396,28 @@
       </c>
     </row>
     <row r="47" ht="30" customHeight="1" spans="1:31">
-      <c r="A47" s="1">
+      <c r="A47" s="2">
         <v>1566</v>
       </c>
-      <c r="B47" s="1" t="s">
+      <c r="B47" s="2" t="s">
         <v>527</v>
       </c>
-      <c r="C47" s="1" t="s">
+      <c r="C47" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="D47" s="1" t="s">
+      <c r="D47" s="2" t="s">
         <v>529</v>
       </c>
-      <c r="E47" s="1" t="s">
+      <c r="E47" s="2" t="s">
         <v>76</v>
       </c>
       <c r="F47" s="2" t="s">
         <v>530</v>
       </c>
-      <c r="G47" s="1" t="s">
+      <c r="G47" s="2" t="s">
         <v>531</v>
       </c>
-      <c r="H47" s="1" t="s">
+      <c r="H47" s="2" t="s">
         <v>531</v>
       </c>
       <c r="I47" s="2" t="s">
@@ -7411,34 +7429,34 @@
       <c r="K47" s="2" t="s">
         <v>533</v>
       </c>
-      <c r="L47" s="1" t="s">
+      <c r="L47" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M47" s="1" t="s">
+      <c r="M47" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N47" s="1" t="s">
+      <c r="N47" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="O47" s="1" t="s">
+      <c r="O47" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="P47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q47" s="1">
+      <c r="P47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q47" s="2">
         <v>25810432</v>
       </c>
-      <c r="R47" s="1" t="s">
+      <c r="R47" s="2" t="s">
         <v>534</v>
       </c>
-      <c r="S47" s="1" t="s">
+      <c r="S47" s="2" t="s">
         <v>528</v>
       </c>
-      <c r="T47" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U47" s="1">
+      <c r="T47" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U47" s="2">
         <v>25810432</v>
       </c>
       <c r="X47" s="1" t="s">
@@ -7464,28 +7482,28 @@
       </c>
     </row>
     <row r="48" ht="30" customHeight="1" spans="1:31">
-      <c r="A48" s="1">
+      <c r="A48" s="2">
         <v>1572</v>
       </c>
-      <c r="B48" s="1" t="s">
+      <c r="B48" s="2" t="s">
         <v>537</v>
       </c>
-      <c r="C48" s="1" t="s">
+      <c r="C48" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="D48" s="1" t="s">
+      <c r="D48" s="2" t="s">
         <v>539</v>
       </c>
-      <c r="E48" s="1" t="s">
+      <c r="E48" s="2" t="s">
         <v>463</v>
       </c>
       <c r="F48" s="2" t="s">
         <v>540</v>
       </c>
-      <c r="G48" s="1" t="s">
+      <c r="G48" s="2" t="s">
         <v>541</v>
       </c>
-      <c r="H48" s="1" t="s">
+      <c r="H48" s="2" t="s">
         <v>541</v>
       </c>
       <c r="I48" s="2" t="s">
@@ -7497,34 +7515,34 @@
       <c r="K48" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L48" s="1" t="s">
+      <c r="L48" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M48" s="1" t="s">
+      <c r="M48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N48" s="1" t="s">
+      <c r="N48" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="O48" s="1" t="s">
+      <c r="O48" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="P48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q48" s="1" t="s">
+      <c r="P48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q48" s="2" t="s">
         <v>544</v>
       </c>
-      <c r="R48" s="1" t="s">
+      <c r="R48" s="2" t="s">
         <v>545</v>
       </c>
-      <c r="S48" s="1" t="s">
+      <c r="S48" s="2" t="s">
         <v>538</v>
       </c>
-      <c r="T48" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U48" s="1" t="s">
+      <c r="T48" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U48" s="2" t="s">
         <v>544</v>
       </c>
       <c r="X48" s="1" t="s">
@@ -7550,28 +7568,28 @@
       </c>
     </row>
     <row r="49" ht="30" customHeight="1" spans="1:31">
-      <c r="A49" s="1">
+      <c r="A49" s="2">
         <v>1587</v>
       </c>
-      <c r="B49" s="1" t="s">
+      <c r="B49" s="2" t="s">
         <v>548</v>
       </c>
-      <c r="C49" s="1" t="s">
+      <c r="C49" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="D49" s="1" t="s">
+      <c r="D49" s="2" t="s">
         <v>550</v>
       </c>
-      <c r="E49" s="1" t="s">
+      <c r="E49" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F49" s="2" t="s">
         <v>551</v>
       </c>
-      <c r="G49" s="1" t="s">
+      <c r="G49" s="2" t="s">
         <v>552</v>
       </c>
-      <c r="H49" s="1" t="s">
+      <c r="H49" s="2" t="s">
         <v>552</v>
       </c>
       <c r="I49" s="2" t="s">
@@ -7583,34 +7601,34 @@
       <c r="K49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L49" s="1" t="s">
+      <c r="L49" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M49" s="1" t="s">
+      <c r="M49" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N49" s="1" t="s">
+      <c r="N49" s="2" t="s">
         <v>272</v>
       </c>
-      <c r="O49" s="1" t="s">
+      <c r="O49" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="P49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q49" s="1" t="s">
+      <c r="P49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q49" s="2" t="s">
         <v>555</v>
       </c>
-      <c r="R49" s="1" t="s">
+      <c r="R49" s="2" t="s">
         <v>412</v>
       </c>
-      <c r="S49" s="1" t="s">
+      <c r="S49" s="2" t="s">
         <v>549</v>
       </c>
-      <c r="T49" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U49" s="1" t="s">
+      <c r="T49" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U49" s="2" t="s">
         <v>555</v>
       </c>
       <c r="X49" s="1" t="s">
@@ -7636,28 +7654,28 @@
       </c>
     </row>
     <row r="50" ht="30" customHeight="1" spans="1:31">
-      <c r="A50" s="1">
+      <c r="A50" s="2">
         <v>554</v>
       </c>
-      <c r="B50" s="1" t="s">
+      <c r="B50" s="2" t="s">
         <v>558</v>
       </c>
-      <c r="C50" s="1" t="s">
+      <c r="C50" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="D50" s="1" t="s">
+      <c r="D50" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="E50" s="1" t="s">
+      <c r="E50" s="2" t="s">
         <v>560</v>
       </c>
       <c r="F50" s="2" t="s">
         <v>561</v>
       </c>
-      <c r="G50" s="1" t="s">
+      <c r="G50" s="2" t="s">
         <v>562</v>
       </c>
-      <c r="H50" s="1" t="s">
+      <c r="H50" s="2" t="s">
         <v>562</v>
       </c>
       <c r="I50" s="2" t="s">
@@ -7669,34 +7687,34 @@
       <c r="K50" s="2" t="s">
         <v>565</v>
       </c>
-      <c r="L50" s="1" t="s">
+      <c r="L50" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M50" s="1" t="s">
+      <c r="M50" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N50" s="1" t="s">
+      <c r="N50" s="2" t="s">
         <v>566</v>
       </c>
-      <c r="O50" s="1" t="s">
+      <c r="O50" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="P50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q50" s="1">
+      <c r="P50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q50" s="2">
         <v>13032418128</v>
       </c>
-      <c r="R50" s="1" t="s">
+      <c r="R50" s="2" t="s">
         <v>567</v>
       </c>
-      <c r="S50" s="1" t="s">
+      <c r="S50" s="2" t="s">
         <v>559</v>
       </c>
-      <c r="T50" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U50" s="1">
+      <c r="T50" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U50" s="2">
         <v>13032418128</v>
       </c>
       <c r="X50" s="1" t="s">
@@ -7722,28 +7740,28 @@
       </c>
     </row>
     <row r="51" ht="30" customHeight="1" spans="1:31">
-      <c r="A51" s="1">
+      <c r="A51" s="2">
         <v>1180</v>
       </c>
-      <c r="B51" s="1" t="s">
+      <c r="B51" s="2" t="s">
         <v>570</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C51" s="2" t="s">
         <v>571</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D51" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E51" s="1" t="s">
+      <c r="E51" s="2" t="s">
         <v>573</v>
       </c>
       <c r="F51" s="2" t="s">
         <v>574</v>
       </c>
-      <c r="G51" s="1" t="s">
+      <c r="G51" s="2" t="s">
         <v>575</v>
       </c>
-      <c r="H51" s="1" t="s">
+      <c r="H51" s="2" t="s">
         <v>575</v>
       </c>
       <c r="I51" s="2" t="s">
@@ -7755,34 +7773,34 @@
       <c r="K51" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L51" s="1" t="s">
+      <c r="L51" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M51" s="1" t="s">
+      <c r="M51" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N51" s="1" t="s">
+      <c r="N51" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="O51" s="1" t="s">
+      <c r="O51" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="P51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q51" s="1">
+      <c r="P51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q51" s="2">
         <v>88261161</v>
       </c>
-      <c r="R51" s="1" t="s">
+      <c r="R51" s="2" t="s">
         <v>579</v>
       </c>
-      <c r="S51" s="1" t="s">
+      <c r="S51" s="2" t="s">
         <v>578</v>
       </c>
-      <c r="T51" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U51" s="1">
+      <c r="T51" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U51" s="2">
         <v>88261161</v>
       </c>
       <c r="X51" s="1" t="s">
@@ -7808,28 +7826,28 @@
       </c>
     </row>
     <row r="52" ht="30" customHeight="1" spans="1:31">
-      <c r="A52" s="1">
+      <c r="A52" s="2">
         <v>1185</v>
       </c>
-      <c r="B52" s="1" t="s">
+      <c r="B52" s="2" t="s">
         <v>582</v>
       </c>
-      <c r="C52" s="1" t="s">
+      <c r="C52" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="D52" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E52" s="1" t="s">
+      <c r="E52" s="2" t="s">
         <v>486</v>
       </c>
       <c r="F52" s="2" t="s">
         <v>585</v>
       </c>
-      <c r="G52" s="1" t="s">
+      <c r="G52" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H52" s="1" t="s">
+      <c r="H52" s="2" t="s">
         <v>586</v>
       </c>
       <c r="I52" s="2" t="s">
@@ -7841,34 +7859,34 @@
       <c r="K52" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L52" s="1" t="s">
+      <c r="L52" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M52" s="1" t="s">
+      <c r="M52" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N52" s="1" t="s">
+      <c r="N52" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="O52" s="1" t="s">
+      <c r="O52" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="P52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q52" s="1">
+      <c r="P52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q52" s="2">
         <v>62771421</v>
       </c>
-      <c r="R52" s="1" t="s">
+      <c r="R52" s="2" t="s">
         <v>589</v>
       </c>
-      <c r="S52" s="1" t="s">
+      <c r="S52" s="2" t="s">
         <v>583</v>
       </c>
-      <c r="T52" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U52" s="1">
+      <c r="T52" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U52" s="2">
         <v>62771421</v>
       </c>
       <c r="X52" s="1" t="s">
@@ -7894,28 +7912,28 @@
       </c>
     </row>
     <row r="53" ht="30" customHeight="1" spans="1:31">
-      <c r="A53" s="1">
+      <c r="A53" s="2">
         <v>545</v>
       </c>
-      <c r="B53" s="1" t="s">
+      <c r="B53" s="2" t="s">
         <v>592</v>
       </c>
-      <c r="C53" s="1" t="s">
+      <c r="C53" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="D53" s="1" t="s">
+      <c r="D53" s="2" t="s">
         <v>594</v>
       </c>
-      <c r="E53" s="1" t="s">
+      <c r="E53" s="2" t="s">
         <v>486</v>
       </c>
       <c r="F53" s="2" t="s">
         <v>595</v>
       </c>
-      <c r="G53" s="1" t="s">
+      <c r="G53" s="2" t="s">
         <v>596</v>
       </c>
-      <c r="H53" s="1" t="s">
+      <c r="H53" s="2" t="s">
         <v>596</v>
       </c>
       <c r="I53" s="2" t="s">
@@ -7927,34 +7945,34 @@
       <c r="K53" s="2" t="s">
         <v>599</v>
       </c>
-      <c r="L53" s="1" t="s">
+      <c r="L53" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M53" s="1" t="s">
+      <c r="M53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N53" s="1" t="s">
+      <c r="N53" s="2" t="s">
         <v>600</v>
       </c>
-      <c r="O53" s="1" t="s">
+      <c r="O53" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="P53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q53" s="1" t="s">
+      <c r="P53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q53" s="2" t="s">
         <v>601</v>
       </c>
-      <c r="R53" s="1" t="s">
+      <c r="R53" s="2" t="s">
         <v>602</v>
       </c>
-      <c r="S53" s="1" t="s">
+      <c r="S53" s="2" t="s">
         <v>593</v>
       </c>
-      <c r="T53" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U53" s="1" t="s">
+      <c r="T53" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U53" s="2" t="s">
         <v>601</v>
       </c>
       <c r="X53" s="1" t="s">
@@ -7980,28 +7998,28 @@
       </c>
     </row>
     <row r="54" ht="30" customHeight="1" spans="1:31">
-      <c r="A54" s="1">
+      <c r="A54" s="2">
         <v>1179</v>
       </c>
-      <c r="B54" s="1" t="s">
+      <c r="B54" s="2" t="s">
         <v>605</v>
       </c>
-      <c r="C54" s="1" t="s">
+      <c r="C54" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="D54" s="1" t="s">
+      <c r="D54" s="2" t="s">
         <v>572</v>
       </c>
-      <c r="E54" s="1" t="s">
+      <c r="E54" s="2" t="s">
         <v>607</v>
       </c>
       <c r="F54" s="2" t="s">
         <v>608</v>
       </c>
-      <c r="G54" s="1" t="s">
+      <c r="G54" s="2" t="s">
         <v>609</v>
       </c>
-      <c r="H54" s="1" t="s">
+      <c r="H54" s="2" t="s">
         <v>374</v>
       </c>
       <c r="I54" s="2" t="s">
@@ -8013,34 +8031,34 @@
       <c r="K54" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L54" s="1" t="s">
+      <c r="L54" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M54" s="1" t="s">
+      <c r="M54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N54" s="1" t="s">
+      <c r="N54" s="2" t="s">
         <v>283</v>
       </c>
-      <c r="O54" s="1" t="s">
+      <c r="O54" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="P54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q54" s="1">
+      <c r="P54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q54" s="2">
         <v>15004034599</v>
       </c>
-      <c r="R54" s="1" t="s">
+      <c r="R54" s="2" t="s">
         <v>612</v>
       </c>
-      <c r="S54" s="1" t="s">
+      <c r="S54" s="2" t="s">
         <v>606</v>
       </c>
-      <c r="T54" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U54" s="1">
+      <c r="T54" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U54" s="2">
         <v>15004034599</v>
       </c>
       <c r="X54" s="1" t="s">
@@ -8066,28 +8084,28 @@
       </c>
     </row>
     <row r="55" ht="30" customHeight="1" spans="1:31">
-      <c r="A55" s="1">
+      <c r="A55" s="2">
         <v>1186</v>
       </c>
-      <c r="B55" s="1" t="s">
+      <c r="B55" s="2" t="s">
         <v>615</v>
       </c>
-      <c r="C55" s="1" t="s">
+      <c r="C55" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="D55" s="1" t="s">
+      <c r="D55" s="2" t="s">
         <v>617</v>
       </c>
-      <c r="E55" s="1" t="s">
+      <c r="E55" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F55" s="2" t="s">
         <v>618</v>
       </c>
-      <c r="G55" s="1" t="s">
+      <c r="G55" s="2" t="s">
         <v>619</v>
       </c>
-      <c r="H55" s="1" t="s">
+      <c r="H55" s="2" t="s">
         <v>586</v>
       </c>
       <c r="I55" s="2" t="s">
@@ -8099,34 +8117,34 @@
       <c r="K55" s="2" t="s">
         <v>622</v>
       </c>
-      <c r="L55" s="1" t="s">
+      <c r="L55" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M55" s="1" t="s">
+      <c r="M55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N55" s="1" t="s">
+      <c r="N55" s="2" t="s">
         <v>623</v>
       </c>
-      <c r="O55" s="1" t="s">
+      <c r="O55" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="P55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q55" s="1" t="s">
+      <c r="P55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q55" s="2" t="s">
         <v>624</v>
       </c>
-      <c r="R55" s="1" t="s">
+      <c r="R55" s="2" t="s">
         <v>625</v>
       </c>
-      <c r="S55" s="1" t="s">
+      <c r="S55" s="2" t="s">
         <v>616</v>
       </c>
-      <c r="T55" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U55" s="1" t="s">
+      <c r="T55" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U55" s="2" t="s">
         <v>624</v>
       </c>
       <c r="X55" s="1" t="s">
@@ -8152,28 +8170,28 @@
       </c>
     </row>
     <row r="56" ht="30" customHeight="1" spans="1:31">
-      <c r="A56" s="1">
+      <c r="A56" s="2">
         <v>1591</v>
       </c>
-      <c r="B56" s="1" t="s">
+      <c r="B56" s="2" t="s">
         <v>628</v>
       </c>
-      <c r="C56" s="1" t="s">
+      <c r="C56" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="D56" s="1" t="s">
+      <c r="D56" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E56" s="1" t="s">
+      <c r="E56" s="2" t="s">
         <v>142</v>
       </c>
       <c r="F56" s="2" t="s">
         <v>630</v>
       </c>
-      <c r="G56" s="1" t="s">
+      <c r="G56" s="2" t="s">
         <v>631</v>
       </c>
-      <c r="H56" s="1" t="s">
+      <c r="H56" s="2" t="s">
         <v>631</v>
       </c>
       <c r="I56" s="2" t="s">
@@ -8185,34 +8203,34 @@
       <c r="K56" s="2" t="s">
         <v>634</v>
       </c>
-      <c r="L56" s="1" t="s">
+      <c r="L56" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M56" s="1" t="s">
+      <c r="M56" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N56" s="1" t="s">
+      <c r="N56" s="2" t="s">
         <v>635</v>
       </c>
-      <c r="O56" s="1" t="s">
+      <c r="O56" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="P56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q56" s="1">
+      <c r="P56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q56" s="2">
         <v>31621166</v>
       </c>
-      <c r="R56" s="1" t="s">
+      <c r="R56" s="2" t="s">
         <v>636</v>
       </c>
-      <c r="S56" s="1" t="s">
+      <c r="S56" s="2" t="s">
         <v>629</v>
       </c>
-      <c r="T56" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U56" s="1">
+      <c r="T56" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U56" s="2">
         <v>31621166</v>
       </c>
       <c r="X56" s="1" t="s">
@@ -8238,28 +8256,28 @@
       </c>
     </row>
     <row r="57" ht="30" customHeight="1" spans="1:31">
-      <c r="A57" s="1">
+      <c r="A57" s="2">
         <v>1187</v>
       </c>
-      <c r="B57" s="1" t="s">
+      <c r="B57" s="2" t="s">
         <v>639</v>
       </c>
-      <c r="C57" s="1" t="s">
+      <c r="C57" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="D57" s="1" t="s">
+      <c r="D57" s="2" t="s">
         <v>641</v>
       </c>
-      <c r="E57" s="1" t="s">
+      <c r="E57" s="2" t="s">
         <v>200</v>
       </c>
       <c r="F57" s="2" t="s">
         <v>642</v>
       </c>
-      <c r="G57" s="1" t="s">
+      <c r="G57" s="2" t="s">
         <v>643</v>
       </c>
-      <c r="H57" s="1" t="s">
+      <c r="H57" s="2" t="s">
         <v>643</v>
       </c>
       <c r="I57" s="2" t="s">
@@ -8271,34 +8289,34 @@
       <c r="K57" s="2" t="s">
         <v>646</v>
       </c>
-      <c r="L57" s="1" t="s">
+      <c r="L57" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M57" s="1" t="s">
+      <c r="M57" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N57" s="1" t="s">
+      <c r="N57" s="2" t="s">
         <v>647</v>
       </c>
-      <c r="O57" s="1" t="s">
+      <c r="O57" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="P57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q57" s="1" t="s">
+      <c r="P57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q57" s="2" t="s">
         <v>648</v>
       </c>
-      <c r="R57" s="1" t="s">
+      <c r="R57" s="2" t="s">
         <v>649</v>
       </c>
-      <c r="S57" s="1" t="s">
+      <c r="S57" s="2" t="s">
         <v>640</v>
       </c>
-      <c r="T57" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U57" s="1" t="s">
+      <c r="T57" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U57" s="2" t="s">
         <v>648</v>
       </c>
       <c r="X57" s="1" t="s">
@@ -8324,25 +8342,26 @@
       </c>
     </row>
     <row r="58" ht="30" customHeight="1" spans="1:31">
-      <c r="A58" s="1">
+      <c r="A58" s="2">
         <v>1184</v>
       </c>
-      <c r="B58" s="1" t="s">
+      <c r="B58" s="2" t="s">
         <v>651</v>
       </c>
-      <c r="C58" s="1" t="s">
+      <c r="C58" s="2" t="s">
         <v>652</v>
       </c>
-      <c r="E58" s="1" t="s">
+      <c r="D58" s="2"/>
+      <c r="E58" s="2" t="s">
         <v>653</v>
       </c>
       <c r="F58" s="2" t="s">
         <v>654</v>
       </c>
-      <c r="G58" s="1" t="s">
+      <c r="G58" s="2" t="s">
         <v>586</v>
       </c>
-      <c r="H58" s="1" t="s">
+      <c r="H58" s="2" t="s">
         <v>586</v>
       </c>
       <c r="I58" s="2" t="s">
@@ -8354,34 +8373,34 @@
       <c r="K58" s="2" t="s">
         <v>657</v>
       </c>
-      <c r="L58" s="1" t="s">
+      <c r="L58" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M58" s="1" t="s">
+      <c r="M58" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N58" s="1" t="s">
+      <c r="N58" s="2" t="s">
         <v>658</v>
       </c>
-      <c r="O58" s="1" t="s">
+      <c r="O58" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="P58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q58" s="1">
+      <c r="P58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q58" s="2">
         <v>86373609</v>
       </c>
-      <c r="R58" s="1" t="s">
+      <c r="R58" s="2" t="s">
         <v>660</v>
       </c>
-      <c r="S58" s="1" t="s">
+      <c r="S58" s="2" t="s">
         <v>659</v>
       </c>
-      <c r="T58" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U58" s="1">
+      <c r="T58" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U58" s="2">
         <v>86373609</v>
       </c>
       <c r="X58" s="1" t="s">
@@ -8407,28 +8426,28 @@
       </c>
     </row>
     <row r="59" ht="30" customHeight="1" spans="1:31">
-      <c r="A59" s="1">
+      <c r="A59" s="2">
         <v>1570</v>
       </c>
-      <c r="B59" s="1" t="s">
+      <c r="B59" s="2" t="s">
         <v>663</v>
       </c>
-      <c r="C59" s="1" t="s">
+      <c r="C59" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="D59" s="1" t="s">
+      <c r="D59" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="E59" s="1" t="s">
+      <c r="E59" s="2" t="s">
         <v>665</v>
       </c>
       <c r="F59" s="2" t="s">
         <v>666</v>
       </c>
-      <c r="G59" s="1" t="s">
+      <c r="G59" s="2" t="s">
         <v>667</v>
       </c>
-      <c r="H59" s="1" t="s">
+      <c r="H59" s="2" t="s">
         <v>667</v>
       </c>
       <c r="I59" s="2" t="s">
@@ -8440,34 +8459,34 @@
       <c r="K59" s="2" t="s">
         <v>669</v>
       </c>
-      <c r="L59" s="1" t="s">
+      <c r="L59" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M59" s="1" t="s">
+      <c r="M59" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N59" s="1" t="s">
+      <c r="N59" s="2" t="s">
         <v>469</v>
       </c>
-      <c r="O59" s="1" t="s">
+      <c r="O59" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="P59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q59" s="1" t="s">
+      <c r="P59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q59" s="2" t="s">
         <v>670</v>
       </c>
-      <c r="R59" s="1" t="s">
+      <c r="R59" s="2" t="s">
         <v>671</v>
       </c>
-      <c r="S59" s="1" t="s">
+      <c r="S59" s="2" t="s">
         <v>664</v>
       </c>
-      <c r="T59" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U59" s="1" t="s">
+      <c r="T59" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U59" s="2" t="s">
         <v>670</v>
       </c>
       <c r="X59" s="1" t="s">
@@ -8493,28 +8512,28 @@
       </c>
     </row>
     <row r="60" ht="30" customHeight="1" spans="1:31">
-      <c r="A60" s="1">
+      <c r="A60" s="2">
         <v>560</v>
       </c>
-      <c r="B60" s="1" t="s">
+      <c r="B60" s="2" t="s">
         <v>673</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C60" s="2" t="s">
         <v>674</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D60" s="2" t="s">
         <v>675</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E60" s="2" t="s">
         <v>676</v>
       </c>
       <c r="F60" s="2" t="s">
         <v>677</v>
       </c>
-      <c r="G60" s="1" t="s">
+      <c r="G60" s="2" t="s">
         <v>678</v>
       </c>
-      <c r="H60" s="1" t="s">
+      <c r="H60" s="2" t="s">
         <v>678</v>
       </c>
       <c r="I60" s="2" t="s">
@@ -8526,34 +8545,34 @@
       <c r="K60" s="2" t="s">
         <v>681</v>
       </c>
-      <c r="L60" s="1" t="s">
+      <c r="L60" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M60" s="1" t="s">
+      <c r="M60" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N60" s="1" t="s">
+      <c r="N60" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="O60" s="1" t="s">
+      <c r="O60" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="P60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q60" s="1" t="s">
+      <c r="P60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q60" s="2" t="s">
         <v>683</v>
       </c>
-      <c r="R60" s="1" t="s">
+      <c r="R60" s="2" t="s">
         <v>684</v>
       </c>
-      <c r="S60" s="1" t="s">
+      <c r="S60" s="2" t="s">
         <v>682</v>
       </c>
-      <c r="T60" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U60" s="1" t="s">
+      <c r="T60" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U60" s="2" t="s">
         <v>683</v>
       </c>
       <c r="X60" s="1" t="s">
@@ -8579,25 +8598,26 @@
       </c>
     </row>
     <row r="61" ht="30" customHeight="1" spans="1:31">
-      <c r="A61" s="1">
+      <c r="A61" s="2">
         <v>1173</v>
       </c>
-      <c r="B61" s="1" t="s">
+      <c r="B61" s="2" t="s">
         <v>688</v>
       </c>
-      <c r="C61" s="1" t="s">
+      <c r="C61" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="E61" s="1" t="s">
+      <c r="D61" s="2"/>
+      <c r="E61" s="2" t="s">
         <v>103</v>
       </c>
       <c r="F61" s="2" t="s">
         <v>690</v>
       </c>
-      <c r="G61" s="1" t="s">
+      <c r="G61" s="2" t="s">
         <v>691</v>
       </c>
-      <c r="H61" s="1" t="s">
+      <c r="H61" s="2" t="s">
         <v>691</v>
       </c>
       <c r="I61" s="2" t="s">
@@ -8609,34 +8629,34 @@
       <c r="K61" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L61" s="1" t="s">
+      <c r="L61" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M61" s="1" t="s">
+      <c r="M61" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N61" s="1" t="s">
+      <c r="N61" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="O61" s="1" t="s">
+      <c r="O61" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="P61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q61" s="1" t="s">
+      <c r="P61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q61" s="2" t="s">
         <v>694</v>
       </c>
-      <c r="R61" s="1" t="s">
+      <c r="R61" s="2" t="s">
         <v>695</v>
       </c>
-      <c r="S61" s="1" t="s">
+      <c r="S61" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="T61" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U61" s="1" t="s">
+      <c r="T61" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U61" s="2" t="s">
         <v>694</v>
       </c>
       <c r="X61" s="1" t="s">
@@ -8662,28 +8682,28 @@
       </c>
     </row>
     <row r="62" ht="30" customHeight="1" spans="1:31">
-      <c r="A62" s="1">
+      <c r="A62" s="2">
         <v>1189</v>
       </c>
-      <c r="B62" s="1" t="s">
+      <c r="B62" s="2" t="s">
         <v>698</v>
       </c>
-      <c r="C62" s="1" t="s">
+      <c r="C62" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="D62" s="1" t="s">
+      <c r="D62" s="2" t="s">
         <v>462</v>
       </c>
-      <c r="E62" s="1" t="s">
+      <c r="E62" s="2" t="s">
         <v>700</v>
       </c>
       <c r="F62" s="2" t="s">
         <v>701</v>
       </c>
-      <c r="G62" s="1" t="s">
+      <c r="G62" s="2" t="s">
         <v>702</v>
       </c>
-      <c r="H62" s="1" t="s">
+      <c r="H62" s="2" t="s">
         <v>702</v>
       </c>
       <c r="I62" s="2" t="s">
@@ -8695,34 +8715,34 @@
       <c r="K62" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="L62" s="1" t="s">
+      <c r="L62" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M62" s="1" t="s">
+      <c r="M62" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N62" s="1" t="s">
+      <c r="N62" s="2" t="s">
         <v>148</v>
       </c>
-      <c r="O62" s="1" t="s">
+      <c r="O62" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="P62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q62" s="1" t="s">
+      <c r="P62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q62" s="2" t="s">
         <v>705</v>
       </c>
-      <c r="R62" s="1" t="s">
+      <c r="R62" s="2" t="s">
         <v>706</v>
       </c>
-      <c r="S62" s="1" t="s">
+      <c r="S62" s="2" t="s">
         <v>699</v>
       </c>
-      <c r="T62" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U62" s="1" t="s">
+      <c r="T62" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U62" s="2" t="s">
         <v>705</v>
       </c>
       <c r="X62" s="1" t="s">
@@ -8748,28 +8768,28 @@
       </c>
     </row>
     <row r="63" ht="30" customHeight="1" spans="1:31">
-      <c r="A63" s="1">
+      <c r="A63" s="2">
         <v>569</v>
       </c>
-      <c r="B63" s="1" t="s">
+      <c r="B63" s="2" t="s">
         <v>710</v>
       </c>
-      <c r="C63" s="1" t="s">
+      <c r="C63" s="2" t="s">
         <v>711</v>
       </c>
-      <c r="D63" s="1" t="s">
+      <c r="D63" s="2" t="s">
         <v>712</v>
       </c>
-      <c r="E63" s="1" t="s">
+      <c r="E63" s="2" t="s">
         <v>713</v>
       </c>
       <c r="F63" s="2" t="s">
         <v>714</v>
       </c>
-      <c r="G63" s="1" t="s">
+      <c r="G63" s="2" t="s">
         <v>715</v>
       </c>
-      <c r="H63" s="1" t="s">
+      <c r="H63" s="2" t="s">
         <v>715</v>
       </c>
       <c r="I63" s="2" t="s">
@@ -8781,34 +8801,34 @@
       <c r="K63" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L63" s="1" t="s">
+      <c r="L63" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M63" s="1" t="s">
+      <c r="M63" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N63" s="1" t="s">
+      <c r="N63" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="O63" s="1" t="s">
+      <c r="O63" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="P63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q63" s="1" t="s">
+      <c r="P63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q63" s="2" t="s">
         <v>720</v>
       </c>
-      <c r="R63" s="1" t="s">
+      <c r="R63" s="2" t="s">
         <v>721</v>
       </c>
-      <c r="S63" s="1" t="s">
+      <c r="S63" s="2" t="s">
         <v>719</v>
       </c>
-      <c r="T63" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U63" s="1" t="s">
+      <c r="T63" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U63" s="2" t="s">
         <v>720</v>
       </c>
       <c r="X63" s="1" t="s">
@@ -8834,28 +8854,28 @@
       </c>
     </row>
     <row r="64" ht="30" customHeight="1" spans="1:31">
-      <c r="A64" s="1">
+      <c r="A64" s="2">
         <v>574</v>
       </c>
-      <c r="B64" s="1" t="s">
+      <c r="B64" s="2" t="s">
         <v>724</v>
       </c>
-      <c r="C64" s="1" t="s">
+      <c r="C64" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="D64" s="1" t="s">
+      <c r="D64" s="2" t="s">
         <v>726</v>
       </c>
-      <c r="E64" s="1" t="s">
+      <c r="E64" s="2" t="s">
         <v>727</v>
       </c>
       <c r="F64" s="2" t="s">
         <v>728</v>
       </c>
-      <c r="G64" s="1" t="s">
+      <c r="G64" s="2" t="s">
         <v>729</v>
       </c>
-      <c r="H64" s="1" t="s">
+      <c r="H64" s="2" t="s">
         <v>729</v>
       </c>
       <c r="I64" s="2" t="s">
@@ -8867,34 +8887,34 @@
       <c r="K64" s="2" t="s">
         <v>732</v>
       </c>
-      <c r="L64" s="1" t="s">
+      <c r="L64" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M64" s="1" t="s">
+      <c r="M64" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N64" s="1" t="s">
+      <c r="N64" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="O64" s="1" t="s">
+      <c r="O64" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="P64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q64" s="1">
+      <c r="P64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q64" s="2">
         <v>13304005223</v>
       </c>
-      <c r="R64" s="1" t="s">
+      <c r="R64" s="2" t="s">
         <v>733</v>
       </c>
-      <c r="S64" s="1" t="s">
+      <c r="S64" s="2" t="s">
         <v>725</v>
       </c>
-      <c r="T64" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U64" s="1">
+      <c r="T64" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U64" s="2">
         <v>13304005223</v>
       </c>
       <c r="X64" s="1" t="s">
@@ -8920,28 +8940,28 @@
       </c>
     </row>
     <row r="65" ht="30" customHeight="1" spans="1:31">
-      <c r="A65" s="1">
+      <c r="A65" s="2">
         <v>1170</v>
       </c>
-      <c r="B65" s="1" t="s">
+      <c r="B65" s="2" t="s">
         <v>735</v>
       </c>
-      <c r="C65" s="1" t="s">
+      <c r="C65" s="2" t="s">
         <v>736</v>
       </c>
-      <c r="D65" s="1" t="s">
+      <c r="D65" s="2" t="s">
         <v>737</v>
       </c>
-      <c r="E65" s="1" t="s">
+      <c r="E65" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F65" s="2" t="s">
         <v>738</v>
       </c>
-      <c r="G65" s="1" t="s">
+      <c r="G65" s="2" t="s">
         <v>739</v>
       </c>
-      <c r="H65" s="1" t="s">
+      <c r="H65" s="2" t="s">
         <v>739</v>
       </c>
       <c r="I65" s="2" t="s">
@@ -8953,34 +8973,34 @@
       <c r="K65" s="2" t="s">
         <v>742</v>
       </c>
-      <c r="L65" s="1" t="s">
+      <c r="L65" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M65" s="1" t="s">
+      <c r="M65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N65" s="1" t="s">
+      <c r="N65" s="2" t="s">
         <v>295</v>
       </c>
-      <c r="O65" s="1" t="s">
+      <c r="O65" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="P65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q65" s="1" t="s">
+      <c r="P65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q65" s="2" t="s">
         <v>744</v>
       </c>
-      <c r="R65" s="1" t="s">
+      <c r="R65" s="2" t="s">
         <v>745</v>
       </c>
-      <c r="S65" s="1" t="s">
+      <c r="S65" s="2" t="s">
         <v>743</v>
       </c>
-      <c r="T65" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U65" s="1" t="s">
+      <c r="T65" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U65" s="2" t="s">
         <v>744</v>
       </c>
       <c r="X65" s="1" t="s">
@@ -9006,28 +9026,28 @@
       </c>
     </row>
     <row r="66" ht="30" customHeight="1" spans="1:31">
-      <c r="A66" s="1">
+      <c r="A66" s="2">
         <v>1595</v>
       </c>
-      <c r="B66" s="1" t="s">
+      <c r="B66" s="2" t="s">
         <v>748</v>
       </c>
-      <c r="C66" s="1" t="s">
+      <c r="C66" s="2" t="s">
         <v>749</v>
       </c>
-      <c r="D66" s="1" t="s">
+      <c r="D66" s="2" t="s">
         <v>584</v>
       </c>
-      <c r="E66" s="1" t="s">
+      <c r="E66" s="2" t="s">
         <v>290</v>
       </c>
       <c r="F66" s="2" t="s">
         <v>750</v>
       </c>
-      <c r="G66" s="1" t="s">
+      <c r="G66" s="2" t="s">
         <v>751</v>
       </c>
-      <c r="H66" s="1" t="s">
+      <c r="H66" s="2" t="s">
         <v>751</v>
       </c>
       <c r="I66" s="2" t="s">
@@ -9039,34 +9059,34 @@
       <c r="K66" s="2" t="s">
         <v>387</v>
       </c>
-      <c r="L66" s="1" t="s">
+      <c r="L66" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M66" s="1" t="s">
+      <c r="M66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N66" s="1" t="s">
+      <c r="N66" s="2" t="s">
         <v>754</v>
       </c>
-      <c r="O66" s="1" t="s">
+      <c r="O66" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="P66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q66" s="1">
+      <c r="P66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q66" s="2">
         <v>22865688</v>
       </c>
-      <c r="R66" s="1" t="s">
+      <c r="R66" s="2" t="s">
         <v>389</v>
       </c>
-      <c r="S66" s="1" t="s">
+      <c r="S66" s="2" t="s">
         <v>755</v>
       </c>
-      <c r="T66" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U66" s="1">
+      <c r="T66" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U66" s="2">
         <v>22865688</v>
       </c>
       <c r="X66" s="1" t="s">
@@ -9092,28 +9112,28 @@
       </c>
     </row>
     <row r="67" ht="30" customHeight="1" spans="1:31">
-      <c r="A67" s="1">
+      <c r="A67" s="2">
         <v>558</v>
       </c>
-      <c r="B67" s="1" t="s">
+      <c r="B67" s="2" t="s">
         <v>758</v>
       </c>
-      <c r="C67" s="1" t="s">
+      <c r="C67" s="2" t="s">
         <v>759</v>
       </c>
-      <c r="D67" s="1" t="s">
+      <c r="D67" s="2" t="s">
         <v>760</v>
       </c>
-      <c r="E67" s="1" t="s">
+      <c r="E67" s="2" t="s">
         <v>88</v>
       </c>
       <c r="F67" s="2" t="s">
         <v>761</v>
       </c>
-      <c r="G67" s="1" t="s">
+      <c r="G67" s="2" t="s">
         <v>762</v>
       </c>
-      <c r="H67" s="1" t="s">
+      <c r="H67" s="2" t="s">
         <v>762</v>
       </c>
       <c r="I67" s="2" t="s">
@@ -9125,34 +9145,34 @@
       <c r="K67" s="2" t="s">
         <v>765</v>
       </c>
-      <c r="L67" s="1" t="s">
+      <c r="L67" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M67" s="1" t="s">
+      <c r="M67" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="N67" s="1" t="s">
+      <c r="N67" s="2" t="s">
         <v>502</v>
       </c>
-      <c r="O67" s="1" t="s">
+      <c r="O67" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="P67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q67" s="1" t="s">
+      <c r="P67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q67" s="2" t="s">
         <v>767</v>
       </c>
-      <c r="R67" s="1" t="s">
+      <c r="R67" s="2" t="s">
         <v>768</v>
       </c>
-      <c r="S67" s="1" t="s">
+      <c r="S67" s="2" t="s">
         <v>766</v>
       </c>
-      <c r="T67" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U67" s="1" t="s">
+      <c r="T67" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U67" s="2" t="s">
         <v>767</v>
       </c>
       <c r="X67" s="1" t="s">
@@ -9175,25 +9195,26 @@
       </c>
     </row>
     <row r="68" ht="30" customHeight="1" spans="1:31">
-      <c r="A68" s="1">
+      <c r="A68" s="2">
         <v>566</v>
       </c>
-      <c r="B68" s="1" t="s">
+      <c r="B68" s="2" t="s">
         <v>771</v>
       </c>
-      <c r="C68" s="1" t="s">
+      <c r="C68" s="2" t="s">
         <v>772</v>
       </c>
-      <c r="E68" s="1" t="s">
+      <c r="D68" s="2"/>
+      <c r="E68" s="2" t="s">
         <v>773</v>
       </c>
       <c r="F68" s="2" t="s">
         <v>774</v>
       </c>
-      <c r="G68" s="1" t="s">
+      <c r="G68" s="2" t="s">
         <v>775</v>
       </c>
-      <c r="H68" s="1" t="s">
+      <c r="H68" s="2" t="s">
         <v>775</v>
       </c>
       <c r="I68" s="2" t="s">
@@ -9205,34 +9226,34 @@
       <c r="K68" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="L68" s="1" t="s">
+      <c r="L68" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="M68" s="1" t="s">
+      <c r="M68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="N68" s="1" t="s">
+      <c r="N68" s="2" t="s">
         <v>718</v>
       </c>
-      <c r="O68" s="1" t="s">
+      <c r="O68" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="P68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q68" s="1">
+      <c r="P68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q68" s="2">
         <v>88023895</v>
       </c>
-      <c r="R68" s="1" t="s">
+      <c r="R68" s="2" t="s">
         <v>779</v>
       </c>
-      <c r="S68" s="1" t="s">
+      <c r="S68" s="2" t="s">
         <v>778</v>
       </c>
-      <c r="T68" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="U68" s="1">
+      <c r="T68" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="U68" s="2">
         <v>88023895</v>
       </c>
       <c r="X68" s="1" t="s">
